--- a/BackTest/2020-01-21 BackTest CON.xlsx
+++ b/BackTest/2020-01-21 BackTest CON.xlsx
@@ -451,7 +451,7 @@
         <v>13000735.46337121</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -1144,7 +1144,7 @@
         <v>4471117.751589899</v>
       </c>
       <c r="H23" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
@@ -1177,7 +1177,7 @@
         <v>4285089.019589899</v>
       </c>
       <c r="H24" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
@@ -1309,7 +1309,7 @@
         <v>3544616.991589899</v>
       </c>
       <c r="H28" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
@@ -1342,7 +1342,7 @@
         <v>4006423.819889899</v>
       </c>
       <c r="H29" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
@@ -1375,7 +1375,7 @@
         <v>4873485.569989899</v>
       </c>
       <c r="H30" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
@@ -1408,7 +1408,7 @@
         <v>4753507.963089899</v>
       </c>
       <c r="H31" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
@@ -2101,7 +2101,7 @@
         <v>8739748.254397864</v>
       </c>
       <c r="H52" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
@@ -2167,7 +2167,7 @@
         <v>8911959.814397862</v>
       </c>
       <c r="H54" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
@@ -2200,7 +2200,7 @@
         <v>9017926.691597862</v>
       </c>
       <c r="H55" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
@@ -2233,7 +2233,7 @@
         <v>9098425.583597863</v>
       </c>
       <c r="H56" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
@@ -2266,7 +2266,7 @@
         <v>9002707.995597864</v>
       </c>
       <c r="H57" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
@@ -2299,7 +2299,7 @@
         <v>8912753.132397864</v>
       </c>
       <c r="H58" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
@@ -2332,7 +2332,7 @@
         <v>8912753.132397864</v>
       </c>
       <c r="H59" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
@@ -2365,7 +2365,7 @@
         <v>8961610.696397863</v>
       </c>
       <c r="H60" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
@@ -2398,7 +2398,7 @@
         <v>8861888.188397864</v>
       </c>
       <c r="H61" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
@@ -2431,7 +2431,7 @@
         <v>8830249.320397863</v>
       </c>
       <c r="H62" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
@@ -2464,7 +2464,7 @@
         <v>8988844.152397864</v>
       </c>
       <c r="H63" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
@@ -2497,7 +2497,7 @@
         <v>8904483.812897863</v>
       </c>
       <c r="H64" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
@@ -2530,7 +2530,7 @@
         <v>8952943.344897863</v>
       </c>
       <c r="H65" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
@@ -2563,7 +2563,7 @@
         <v>8812606.635697862</v>
       </c>
       <c r="H66" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
@@ -2596,7 +2596,7 @@
         <v>8895508.479697863</v>
       </c>
       <c r="H67" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
@@ -2629,7 +2629,7 @@
         <v>8793183.280697864</v>
       </c>
       <c r="H68" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
@@ -2662,7 +2662,7 @@
         <v>8753534.572697863</v>
       </c>
       <c r="H69" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
@@ -2695,7 +2695,7 @@
         <v>8829227.560697863</v>
       </c>
       <c r="H70" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
@@ -2728,7 +2728,7 @@
         <v>8865041.401497863</v>
       </c>
       <c r="H71" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
@@ -2761,7 +2761,7 @@
         <v>8865041.401497863</v>
       </c>
       <c r="H72" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
@@ -2794,7 +2794,7 @@
         <v>8769607.027297864</v>
       </c>
       <c r="H73" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
@@ -2926,7 +2926,7 @@
         <v>9730156.632697864</v>
       </c>
       <c r="H77" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
@@ -2959,7 +2959,7 @@
         <v>9580091.220197864</v>
       </c>
       <c r="H78" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
@@ -3025,7 +3025,7 @@
         <v>9451132.796197863</v>
       </c>
       <c r="H80" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
@@ -3091,7 +3091,7 @@
         <v>9600479.412197864</v>
       </c>
       <c r="H82" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
@@ -3256,7 +3256,7 @@
         <v>10087500.03869786</v>
       </c>
       <c r="H87" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
@@ -3289,7 +3289,7 @@
         <v>9995787.370697863</v>
       </c>
       <c r="H88" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
@@ -3322,7 +3322,7 @@
         <v>9885769.725797864</v>
       </c>
       <c r="H89" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
@@ -3355,7 +3355,7 @@
         <v>10081793.88839786</v>
       </c>
       <c r="H90" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
@@ -3388,7 +3388,7 @@
         <v>9393701.517497864</v>
       </c>
       <c r="H91" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
@@ -3421,7 +3421,7 @@
         <v>9453308.394005483</v>
       </c>
       <c r="H92" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
@@ -3454,7 +3454,7 @@
         <v>9408119.005005483</v>
       </c>
       <c r="H93" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
@@ -3487,7 +3487,7 @@
         <v>9498229.705005482</v>
       </c>
       <c r="H94" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
@@ -3520,7 +3520,7 @@
         <v>9544286.285005482</v>
       </c>
       <c r="H95" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
@@ -3553,7 +3553,7 @@
         <v>9466991.329005482</v>
       </c>
       <c r="H96" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
@@ -3586,7 +3586,7 @@
         <v>9426541.637005482</v>
       </c>
       <c r="H97" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
@@ -3619,7 +3619,7 @@
         <v>9514273.415005483</v>
       </c>
       <c r="H98" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
@@ -3652,7 +3652,7 @@
         <v>9813285.997705482</v>
       </c>
       <c r="H99" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
@@ -3685,7 +3685,7 @@
         <v>9648449.199205482</v>
       </c>
       <c r="H100" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
@@ -3718,7 +3718,7 @@
         <v>9564746.371205483</v>
       </c>
       <c r="H101" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
@@ -3751,7 +3751,7 @@
         <v>9609369.276105482</v>
       </c>
       <c r="H102" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
@@ -3784,7 +3784,7 @@
         <v>9523123.011805482</v>
       </c>
       <c r="H103" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
@@ -3817,7 +3817,7 @@
         <v>9664408.686805483</v>
       </c>
       <c r="H104" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
@@ -3850,7 +3850,7 @@
         <v>9563084.210805483</v>
       </c>
       <c r="H105" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
@@ -3883,7 +3883,7 @@
         <v>9715271.170805484</v>
       </c>
       <c r="H106" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
@@ -3916,7 +3916,7 @@
         <v>9835418.770805484</v>
       </c>
       <c r="H107" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
@@ -3949,7 +3949,7 @@
         <v>9737298.230805485</v>
       </c>
       <c r="H108" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
@@ -3982,7 +3982,7 @@
         <v>10787214.6311592</v>
       </c>
       <c r="H109" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
@@ -4015,7 +4015,7 @@
         <v>10899409.8310592</v>
       </c>
       <c r="H110" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
@@ -4048,7 +4048,7 @@
         <v>11912039.10323398</v>
       </c>
       <c r="H111" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
@@ -4081,7 +4081,7 @@
         <v>12533123.2498053</v>
       </c>
       <c r="H112" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
@@ -4114,7 +4114,7 @@
         <v>12466626.07224012</v>
       </c>
       <c r="H113" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
@@ -4246,7 +4246,7 @@
         <v>10738740.81214134</v>
       </c>
       <c r="H117" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
@@ -4279,7 +4279,7 @@
         <v>10703097.02414134</v>
       </c>
       <c r="H118" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
@@ -4312,7 +4312,7 @@
         <v>10753959.50814134</v>
       </c>
       <c r="H119" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
@@ -4345,7 +4345,7 @@
         <v>10691883.24814134</v>
       </c>
       <c r="H120" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
@@ -4378,7 +4378,7 @@
         <v>10797568.84514134</v>
       </c>
       <c r="H121" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
@@ -4411,7 +4411,7 @@
         <v>10796727.81214134</v>
       </c>
       <c r="H122" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
@@ -4444,7 +4444,7 @@
         <v>11284437.36774134</v>
       </c>
       <c r="H123" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
@@ -4477,7 +4477,7 @@
         <v>11232773.89974134</v>
       </c>
       <c r="H124" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
@@ -4543,7 +4543,7 @@
         <v>11207142.41174134</v>
       </c>
       <c r="H126" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
@@ -4774,7 +4774,7 @@
         <v>11424154.91824134</v>
       </c>
       <c r="H133" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
@@ -5137,7 +5137,7 @@
         <v>11417224.09664134</v>
       </c>
       <c r="H144" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
@@ -5236,7 +5236,7 @@
         <v>12210198.59144134</v>
       </c>
       <c r="H147" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
@@ -5269,7 +5269,7 @@
         <v>11899197.36444134</v>
       </c>
       <c r="H148" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
@@ -5302,7 +5302,7 @@
         <v>11833946.68844134</v>
       </c>
       <c r="H149" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
@@ -5335,7 +5335,7 @@
         <v>11665728.42594134</v>
       </c>
       <c r="H150" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
@@ -5368,7 +5368,7 @@
         <v>11747028.30194134</v>
       </c>
       <c r="H151" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
@@ -5401,7 +5401,7 @@
         <v>11827311.41794134</v>
       </c>
       <c r="H152" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
@@ -5434,7 +5434,7 @@
         <v>11937533.06034134</v>
       </c>
       <c r="H153" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
@@ -5467,7 +5467,7 @@
         <v>12036288.69634134</v>
       </c>
       <c r="H154" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
@@ -5500,7 +5500,7 @@
         <v>11585928.53064134</v>
       </c>
       <c r="H155" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
@@ -5533,7 +5533,7 @@
         <v>11481891.29334134</v>
       </c>
       <c r="H156" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
@@ -5566,7 +5566,7 @@
         <v>11230227.13534134</v>
       </c>
       <c r="H157" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
@@ -5599,7 +5599,7 @@
         <v>10909941.84264134</v>
       </c>
       <c r="H158" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
@@ -5962,7 +5962,7 @@
         <v>12539054.29903372</v>
       </c>
       <c r="H169" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
@@ -6028,7 +6028,7 @@
         <v>12423712.60303372</v>
       </c>
       <c r="H171" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
@@ -6094,7 +6094,7 @@
         <v>12792699.26953372</v>
       </c>
       <c r="H173" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr"/>
@@ -6127,7 +6127,7 @@
         <v>12798424.08723372</v>
       </c>
       <c r="H174" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr"/>
@@ -6160,7 +6160,7 @@
         <v>12627527.62333372</v>
       </c>
       <c r="H175" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr"/>
@@ -6193,7 +6193,7 @@
         <v>11601370.64443372</v>
       </c>
       <c r="H176" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I176" t="inlineStr"/>
       <c r="J176" t="inlineStr"/>
@@ -6226,7 +6226,7 @@
         <v>11694310.50553372</v>
       </c>
       <c r="H177" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr"/>
@@ -6259,7 +6259,7 @@
         <v>11656168.70013371</v>
       </c>
       <c r="H178" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr"/>
@@ -6292,7 +6292,7 @@
         <v>11584480.63213371</v>
       </c>
       <c r="H179" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr"/>
@@ -6325,7 +6325,7 @@
         <v>11662576.57213371</v>
       </c>
       <c r="H180" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr"/>
@@ -6391,7 +6391,7 @@
         <v>11704227.74013371</v>
       </c>
       <c r="H182" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I182" t="inlineStr"/>
       <c r="J182" t="inlineStr"/>
@@ -6457,7 +6457,7 @@
         <v>11584504.66213371</v>
       </c>
       <c r="H184" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I184" t="inlineStr"/>
       <c r="J184" t="inlineStr"/>
@@ -6490,7 +6490,7 @@
         <v>11374541.21153371</v>
       </c>
       <c r="H185" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I185" t="inlineStr"/>
       <c r="J185" t="inlineStr"/>
@@ -6820,7 +6820,7 @@
         <v>11838924.73773371</v>
       </c>
       <c r="H195" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I195" t="inlineStr"/>
       <c r="J195" t="inlineStr"/>
@@ -7117,7 +7117,7 @@
         <v>12177676.36573371</v>
       </c>
       <c r="H204" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I204" t="inlineStr"/>
       <c r="J204" t="inlineStr"/>
@@ -7150,7 +7150,7 @@
         <v>12178114.16123371</v>
       </c>
       <c r="H205" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I205" t="inlineStr"/>
       <c r="J205" t="inlineStr"/>
@@ -7348,7 +7348,7 @@
         <v>12478814.51623371</v>
       </c>
       <c r="H211" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I211" t="inlineStr"/>
       <c r="J211" t="inlineStr"/>
@@ -7381,7 +7381,7 @@
         <v>12516861.25623371</v>
       </c>
       <c r="H212" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I212" t="inlineStr"/>
       <c r="J212" t="inlineStr"/>
@@ -7414,7 +7414,7 @@
         <v>12550914.22903371</v>
       </c>
       <c r="H213" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I213" t="inlineStr"/>
       <c r="J213" t="inlineStr"/>
@@ -7447,7 +7447,7 @@
         <v>12633015.08903371</v>
       </c>
       <c r="H214" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I214" t="inlineStr"/>
       <c r="J214" t="inlineStr"/>
@@ -7480,7 +7480,7 @@
         <v>12731135.62903371</v>
       </c>
       <c r="H215" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I215" t="inlineStr"/>
       <c r="J215" t="inlineStr"/>
@@ -7513,7 +7513,7 @@
         <v>12923551.30573371</v>
       </c>
       <c r="H216" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I216" t="inlineStr"/>
       <c r="J216" t="inlineStr"/>
@@ -7546,7 +7546,7 @@
         <v>12791061.56223371</v>
       </c>
       <c r="H217" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I217" t="inlineStr"/>
       <c r="J217" t="inlineStr"/>
@@ -7579,7 +7579,7 @@
         <v>12791061.56223371</v>
       </c>
       <c r="H218" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I218" t="inlineStr"/>
       <c r="J218" t="inlineStr"/>
@@ -7612,7 +7612,7 @@
         <v>12888212.91123371</v>
       </c>
       <c r="H219" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I219" t="inlineStr"/>
       <c r="J219" t="inlineStr"/>
@@ -7645,7 +7645,7 @@
         <v>13356468.95371672</v>
       </c>
       <c r="H220" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I220" t="inlineStr"/>
       <c r="J220" t="inlineStr"/>
@@ -7678,7 +7678,7 @@
         <v>13507053.94571672</v>
       </c>
       <c r="H221" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I221" t="inlineStr"/>
       <c r="J221" t="inlineStr"/>
@@ -7711,7 +7711,7 @@
         <v>13542697.73371672</v>
       </c>
       <c r="H222" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I222" t="inlineStr"/>
       <c r="J222" t="inlineStr"/>
@@ -7744,7 +7744,7 @@
         <v>13491835.24971672</v>
       </c>
       <c r="H223" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I223" t="inlineStr"/>
       <c r="J223" t="inlineStr"/>
@@ -7777,7 +7777,7 @@
         <v>12376746.39441672</v>
       </c>
       <c r="H224" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I224" t="inlineStr"/>
       <c r="J224" t="inlineStr"/>
@@ -7810,7 +7810,7 @@
         <v>12713643.55571672</v>
       </c>
       <c r="H225" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I225" t="inlineStr"/>
       <c r="J225" t="inlineStr"/>
@@ -7843,7 +7843,7 @@
         <v>12605707.91771672</v>
       </c>
       <c r="H226" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I226" t="inlineStr"/>
       <c r="J226" t="inlineStr"/>
@@ -7876,7 +7876,7 @@
         <v>12554044.44971672</v>
       </c>
       <c r="H227" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I227" t="inlineStr"/>
       <c r="J227" t="inlineStr"/>
@@ -7909,7 +7909,7 @@
         <v>12504783.93371672</v>
       </c>
       <c r="H228" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I228" t="inlineStr"/>
       <c r="J228" t="inlineStr"/>
@@ -7942,7 +7942,7 @@
         <v>12429891.92971672</v>
       </c>
       <c r="H229" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I229" t="inlineStr"/>
       <c r="J229" t="inlineStr"/>
@@ -7975,7 +7975,7 @@
         <v>12466336.70171672</v>
       </c>
       <c r="H230" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I230" t="inlineStr"/>
       <c r="J230" t="inlineStr"/>
@@ -8008,7 +8008,7 @@
         <v>12379029.44571672</v>
       </c>
       <c r="H231" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I231" t="inlineStr"/>
       <c r="J231" t="inlineStr"/>
@@ -8041,7 +8041,7 @@
         <v>12446099.42161672</v>
       </c>
       <c r="H232" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I232" t="inlineStr"/>
       <c r="J232" t="inlineStr"/>
@@ -8074,7 +8074,7 @@
         <v>12274461.71761672</v>
       </c>
       <c r="H233" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I233" t="inlineStr"/>
       <c r="J233" t="inlineStr"/>
@@ -8107,7 +8107,7 @@
         <v>12277136.36751672</v>
       </c>
       <c r="H234" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I234" t="inlineStr"/>
       <c r="J234" t="inlineStr"/>
@@ -8140,7 +8140,7 @@
         <v>12054683.50351672</v>
       </c>
       <c r="H235" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I235" t="inlineStr"/>
       <c r="J235" t="inlineStr"/>
@@ -8173,7 +8173,7 @@
         <v>11863013.56101672</v>
       </c>
       <c r="H236" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I236" t="inlineStr"/>
       <c r="J236" t="inlineStr"/>
@@ -8206,7 +8206,7 @@
         <v>11863013.56101672</v>
       </c>
       <c r="H237" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I237" t="inlineStr"/>
       <c r="J237" t="inlineStr"/>
@@ -8239,7 +8239,7 @@
         <v>11776957.52941672</v>
       </c>
       <c r="H238" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I238" t="inlineStr"/>
       <c r="J238" t="inlineStr"/>
@@ -8272,7 +8272,7 @@
         <v>11819669.82941672</v>
       </c>
       <c r="H239" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I239" t="inlineStr"/>
       <c r="J239" t="inlineStr"/>
@@ -8305,7 +8305,7 @@
         <v>11819669.82941672</v>
       </c>
       <c r="H240" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I240" t="inlineStr"/>
       <c r="J240" t="inlineStr"/>
@@ -8338,7 +8338,7 @@
         <v>11731021.09741672</v>
       </c>
       <c r="H241" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I241" t="inlineStr"/>
       <c r="J241" t="inlineStr"/>
@@ -8371,7 +8371,7 @@
         <v>11792296.37341672</v>
       </c>
       <c r="H242" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I242" t="inlineStr"/>
       <c r="J242" t="inlineStr"/>
@@ -8404,7 +8404,7 @@
         <v>11573124.95701672</v>
       </c>
       <c r="H243" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I243" t="inlineStr"/>
       <c r="J243" t="inlineStr"/>
@@ -8569,7 +8569,7 @@
         <v>11300449.58071672</v>
       </c>
       <c r="H248" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I248" t="inlineStr"/>
       <c r="J248" t="inlineStr"/>
@@ -8602,7 +8602,7 @@
         <v>11238647.13761672</v>
       </c>
       <c r="H249" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I249" t="inlineStr"/>
       <c r="J249" t="inlineStr"/>
@@ -8668,7 +8668,7 @@
         <v>11938102.73865737</v>
       </c>
       <c r="H251" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I251" t="inlineStr"/>
       <c r="J251" t="inlineStr"/>
@@ -8701,7 +8701,7 @@
         <v>12031417.37465737</v>
       </c>
       <c r="H252" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I252" t="inlineStr"/>
       <c r="J252" t="inlineStr"/>
@@ -8734,7 +8734,7 @@
         <v>11481428.96415737</v>
       </c>
       <c r="H253" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I253" t="inlineStr"/>
       <c r="J253" t="inlineStr"/>
@@ -8767,7 +8767,7 @@
         <v>12241053.75221672</v>
       </c>
       <c r="H254" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I254" t="inlineStr"/>
       <c r="J254" t="inlineStr"/>
@@ -8800,7 +8800,7 @@
         <v>12185385.36421672</v>
       </c>
       <c r="H255" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I255" t="inlineStr"/>
       <c r="J255" t="inlineStr"/>
@@ -8833,7 +8833,7 @@
         <v>12253068.51221672</v>
       </c>
       <c r="H256" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I256" t="inlineStr"/>
       <c r="J256" t="inlineStr"/>
@@ -8866,7 +8866,7 @@
         <v>12149341.08421672</v>
       </c>
       <c r="H257" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I257" t="inlineStr"/>
       <c r="J257" t="inlineStr"/>
@@ -8899,7 +8899,7 @@
         <v>12217825.21621672</v>
       </c>
       <c r="H258" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I258" t="inlineStr"/>
       <c r="J258" t="inlineStr"/>
@@ -8932,7 +8932,7 @@
         <v>12077272.99081672</v>
       </c>
       <c r="H259" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I259" t="inlineStr"/>
       <c r="J259" t="inlineStr"/>
@@ -8965,7 +8965,7 @@
         <v>12157771.88281672</v>
       </c>
       <c r="H260" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I260" t="inlineStr"/>
       <c r="J260" t="inlineStr"/>
@@ -8998,7 +8998,7 @@
         <v>11381533.25071672</v>
       </c>
       <c r="H261" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I261" t="inlineStr"/>
       <c r="J261" t="inlineStr"/>
@@ -9031,7 +9031,7 @@
         <v>11381533.25071672</v>
       </c>
       <c r="H262" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I262" t="inlineStr"/>
       <c r="J262" t="inlineStr"/>
@@ -9064,7 +9064,7 @@
         <v>11234675.68671672</v>
       </c>
       <c r="H263" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I263" t="inlineStr"/>
       <c r="J263" t="inlineStr"/>
@@ -9361,7 +9361,7 @@
         <v>11343433.02961672</v>
       </c>
       <c r="H272" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I272" t="inlineStr"/>
       <c r="J272" t="inlineStr"/>
@@ -9559,7 +9559,7 @@
         <v>11212214.28301672</v>
       </c>
       <c r="H278" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I278" t="inlineStr"/>
       <c r="J278" t="inlineStr"/>
@@ -9625,7 +9625,7 @@
         <v>11149838.02301672</v>
       </c>
       <c r="H280" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I280" t="inlineStr"/>
       <c r="J280" t="inlineStr"/>
@@ -10813,7 +10813,7 @@
         <v>12175878.48723197</v>
       </c>
       <c r="H316" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I316" t="inlineStr"/>
       <c r="J316" t="inlineStr"/>
@@ -10846,7 +10846,7 @@
         <v>12285346.80323197</v>
       </c>
       <c r="H317" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I317" t="inlineStr"/>
       <c r="J317" t="inlineStr"/>
@@ -10879,7 +10879,7 @@
         <v>11537734.60203197</v>
       </c>
       <c r="H318" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I318" t="inlineStr"/>
       <c r="J318" t="inlineStr"/>
@@ -10912,7 +10912,7 @@
         <v>11085732.38293197</v>
       </c>
       <c r="H319" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I319" t="inlineStr"/>
       <c r="J319" t="inlineStr"/>
@@ -10945,7 +10945,7 @@
         <v>10947618.35643197</v>
       </c>
       <c r="H320" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I320" t="inlineStr"/>
       <c r="J320" t="inlineStr"/>
@@ -10978,7 +10978,7 @@
         <v>10584870.66903197</v>
       </c>
       <c r="H321" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I321" t="inlineStr"/>
       <c r="J321" t="inlineStr"/>
@@ -11011,7 +11011,7 @@
         <v>10754903.65223197</v>
       </c>
       <c r="H322" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I322" t="inlineStr"/>
       <c r="J322" t="inlineStr"/>
@@ -11044,7 +11044,7 @@
         <v>10660249.52793197</v>
       </c>
       <c r="H323" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I323" t="inlineStr"/>
       <c r="J323" t="inlineStr"/>
@@ -11077,7 +11077,7 @@
         <v>11169263.15813197</v>
       </c>
       <c r="H324" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I324" t="inlineStr"/>
       <c r="J324" t="inlineStr"/>
@@ -11110,7 +11110,7 @@
         <v>11222580.46683197</v>
       </c>
       <c r="H325" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I325" t="inlineStr"/>
       <c r="J325" t="inlineStr"/>
@@ -11143,7 +11143,7 @@
         <v>11241628.09513197</v>
       </c>
       <c r="H326" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I326" t="inlineStr"/>
       <c r="J326" t="inlineStr"/>
@@ -11176,7 +11176,7 @@
         <v>11325446.26143197</v>
       </c>
       <c r="H327" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I327" t="inlineStr"/>
       <c r="J327" t="inlineStr"/>
@@ -11209,7 +11209,7 @@
         <v>10829909.18263197</v>
       </c>
       <c r="H328" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I328" t="inlineStr"/>
       <c r="J328" t="inlineStr"/>
@@ -11242,7 +11242,7 @@
         <v>10929240.70663197</v>
       </c>
       <c r="H329" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I329" t="inlineStr"/>
       <c r="J329" t="inlineStr"/>
@@ -11275,7 +11275,7 @@
         <v>10929240.70663197</v>
       </c>
       <c r="H330" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I330" t="inlineStr"/>
       <c r="J330" t="inlineStr"/>
@@ -11308,7 +11308,7 @@
         <v>10841961.37453197</v>
       </c>
       <c r="H331" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I331" t="inlineStr"/>
       <c r="J331" t="inlineStr"/>
@@ -11341,7 +11341,7 @@
         <v>11415859.60853197</v>
       </c>
       <c r="H332" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I332" t="inlineStr"/>
       <c r="J332" t="inlineStr"/>
@@ -11374,7 +11374,7 @@
         <v>11465255.12453197</v>
       </c>
       <c r="H333" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I333" t="inlineStr"/>
       <c r="J333" t="inlineStr"/>
@@ -11407,7 +11407,7 @@
         <v>11390363.12053197</v>
       </c>
       <c r="H334" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I334" t="inlineStr"/>
       <c r="J334" t="inlineStr"/>
@@ -11440,7 +11440,7 @@
         <v>11427197.93693197</v>
       </c>
       <c r="H335" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I335" t="inlineStr"/>
       <c r="J335" t="inlineStr"/>
@@ -11473,7 +11473,7 @@
         <v>11427197.93693197</v>
       </c>
       <c r="H336" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I336" t="inlineStr"/>
       <c r="J336" t="inlineStr"/>
@@ -11506,7 +11506,7 @@
         <v>10950466.61473197</v>
       </c>
       <c r="H337" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I337" t="inlineStr"/>
       <c r="J337" t="inlineStr"/>
@@ -11539,7 +11539,7 @@
         <v>10816898.58733197</v>
       </c>
       <c r="H338" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I338" t="inlineStr"/>
       <c r="J338" t="inlineStr"/>
@@ -11572,7 +11572,7 @@
         <v>10905807.81133197</v>
       </c>
       <c r="H339" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I339" t="inlineStr"/>
       <c r="J339" t="inlineStr"/>
@@ -11605,7 +11605,7 @@
         <v>10449286.47603197</v>
       </c>
       <c r="H340" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I340" t="inlineStr"/>
       <c r="J340" t="inlineStr"/>
@@ -11638,7 +11638,7 @@
         <v>10507640.65433197</v>
       </c>
       <c r="H341" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I341" t="inlineStr"/>
       <c r="J341" t="inlineStr"/>
@@ -11671,7 +11671,7 @@
         <v>10404714.21033197</v>
       </c>
       <c r="H342" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I342" t="inlineStr"/>
       <c r="J342" t="inlineStr"/>
@@ -11704,7 +11704,7 @@
         <v>10487650.21133197</v>
       </c>
       <c r="H343" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I343" t="inlineStr"/>
       <c r="J343" t="inlineStr"/>
@@ -11737,7 +11737,7 @@
         <v>10423170.99933197</v>
       </c>
       <c r="H344" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I344" t="inlineStr"/>
       <c r="J344" t="inlineStr"/>
@@ -11770,7 +11770,7 @@
         <v>10430872.60483197</v>
       </c>
       <c r="H345" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I345" t="inlineStr"/>
       <c r="J345" t="inlineStr"/>
@@ -11803,7 +11803,7 @@
         <v>10395483.51083197</v>
       </c>
       <c r="H346" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I346" t="inlineStr"/>
       <c r="J346" t="inlineStr"/>
@@ -11836,7 +11836,7 @@
         <v>10439836.16613197</v>
       </c>
       <c r="H347" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I347" t="inlineStr"/>
       <c r="J347" t="inlineStr"/>
@@ -11869,7 +11869,7 @@
         <v>10439836.16613197</v>
       </c>
       <c r="H348" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I348" t="inlineStr"/>
       <c r="J348" t="inlineStr"/>
@@ -11902,7 +11902,7 @@
         <v>10439836.16613197</v>
       </c>
       <c r="H349" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I349" t="inlineStr"/>
       <c r="J349" t="inlineStr"/>
@@ -11935,7 +11935,7 @@
         <v>10378560.89013197</v>
       </c>
       <c r="H350" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I350" t="inlineStr"/>
       <c r="J350" t="inlineStr"/>
@@ -11968,7 +11968,7 @@
         <v>11614017.58823197</v>
       </c>
       <c r="H351" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I351" t="inlineStr"/>
       <c r="J351" t="inlineStr"/>
@@ -12001,7 +12001,7 @@
         <v>11614017.58823197</v>
       </c>
       <c r="H352" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I352" t="inlineStr"/>
       <c r="J352" t="inlineStr"/>
@@ -12034,7 +12034,7 @@
         <v>11575169.86423197</v>
       </c>
       <c r="H353" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I353" t="inlineStr"/>
       <c r="J353" t="inlineStr"/>
@@ -12067,7 +12067,7 @@
         <v>11575772.20953197</v>
       </c>
       <c r="H354" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I354" t="inlineStr"/>
       <c r="J354" t="inlineStr"/>
@@ -12100,7 +12100,7 @@
         <v>11489100.21823197</v>
       </c>
       <c r="H355" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I355" t="inlineStr"/>
       <c r="J355" t="inlineStr"/>
@@ -12133,7 +12133,7 @@
         <v>11948250.21903197</v>
       </c>
       <c r="H356" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I356" t="inlineStr"/>
       <c r="J356" t="inlineStr"/>
@@ -12166,7 +12166,7 @@
         <v>12031692.55503197</v>
       </c>
       <c r="H357" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I357" t="inlineStr"/>
       <c r="J357" t="inlineStr"/>
@@ -12199,7 +12199,7 @@
         <v>11310292.95023197</v>
       </c>
       <c r="H358" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I358" t="inlineStr"/>
       <c r="J358" t="inlineStr"/>
@@ -12232,7 +12232,7 @@
         <v>11403607.58623197</v>
       </c>
       <c r="H359" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I359" t="inlineStr"/>
       <c r="J359" t="inlineStr"/>
@@ -12265,7 +12265,7 @@
         <v>11322307.71023197</v>
       </c>
       <c r="H360" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I360" t="inlineStr"/>
       <c r="J360" t="inlineStr"/>
@@ -12298,7 +12298,7 @@
         <v>11253022.59423197</v>
       </c>
       <c r="H361" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I361" t="inlineStr"/>
       <c r="J361" t="inlineStr"/>
@@ -12331,7 +12331,7 @@
         <v>11103665.19763197</v>
       </c>
       <c r="H362" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I362" t="inlineStr"/>
       <c r="J362" t="inlineStr"/>
@@ -12364,7 +12364,7 @@
         <v>12171987.06643197</v>
       </c>
       <c r="H363" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I363" t="inlineStr"/>
       <c r="J363" t="inlineStr"/>
@@ -12397,7 +12397,7 @@
         <v>11931414.29713197</v>
       </c>
       <c r="H364" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I364" t="inlineStr"/>
       <c r="J364" t="inlineStr"/>
@@ -12430,7 +12430,7 @@
         <v>11862930.16513197</v>
       </c>
       <c r="H365" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I365" t="inlineStr"/>
       <c r="J365" t="inlineStr"/>
@@ -12463,7 +12463,7 @@
         <v>12013588.71313197</v>
       </c>
       <c r="H366" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I366" t="inlineStr"/>
       <c r="J366" t="inlineStr"/>
@@ -12496,7 +12496,7 @@
         <v>12080561.62443197</v>
       </c>
       <c r="H367" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I367" t="inlineStr"/>
       <c r="J367" t="inlineStr"/>
@@ -12529,7 +12529,7 @@
         <v>12193499.68943197</v>
       </c>
       <c r="H368" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I368" t="inlineStr"/>
       <c r="J368" t="inlineStr"/>
@@ -12562,7 +12562,7 @@
         <v>12088035.30313197</v>
       </c>
       <c r="H369" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I369" t="inlineStr"/>
       <c r="J369" t="inlineStr"/>
@@ -12595,7 +12595,7 @@
         <v>12088443.80513197</v>
       </c>
       <c r="H370" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I370" t="inlineStr"/>
       <c r="J370" t="inlineStr"/>
@@ -12628,7 +12628,7 @@
         <v>11936256.84513197</v>
       </c>
       <c r="H371" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I371" t="inlineStr"/>
       <c r="J371" t="inlineStr"/>
@@ -12661,7 +12661,7 @@
         <v>11806396.52713197</v>
       </c>
       <c r="H372" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I372" t="inlineStr"/>
       <c r="J372" t="inlineStr"/>
@@ -12694,7 +12694,7 @@
         <v>11929521.17973197</v>
       </c>
       <c r="H373" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I373" t="inlineStr"/>
       <c r="J373" t="inlineStr"/>
@@ -12727,7 +12727,7 @@
         <v>11804866.87933197</v>
       </c>
       <c r="H374" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I374" t="inlineStr"/>
       <c r="J374" t="inlineStr"/>
@@ -12760,7 +12760,7 @@
         <v>11624192.04663197</v>
       </c>
       <c r="H375" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I375" t="inlineStr"/>
       <c r="J375" t="inlineStr"/>
@@ -12793,7 +12793,7 @@
         <v>11941908.40583197</v>
       </c>
       <c r="H376" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I376" t="inlineStr"/>
       <c r="J376" t="inlineStr"/>
@@ -12826,7 +12826,7 @@
         <v>11893448.87383197</v>
       </c>
       <c r="H377" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I377" t="inlineStr"/>
       <c r="J377" t="inlineStr"/>
@@ -12859,7 +12859,7 @@
         <v>11787318.49383197</v>
       </c>
       <c r="H378" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I378" t="inlineStr"/>
       <c r="J378" t="inlineStr"/>
@@ -12892,7 +12892,7 @@
         <v>11870220.33783197</v>
       </c>
       <c r="H379" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I379" t="inlineStr"/>
       <c r="J379" t="inlineStr"/>
@@ -12925,7 +12925,7 @@
         <v>11913072.98183197</v>
       </c>
       <c r="H380" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I380" t="inlineStr"/>
       <c r="J380" t="inlineStr"/>
@@ -12958,7 +12958,7 @@
         <v>11797731.28583197</v>
       </c>
       <c r="H381" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I381" t="inlineStr"/>
       <c r="J381" t="inlineStr"/>
@@ -12991,7 +12991,7 @@
         <v>11553526.09083197</v>
       </c>
       <c r="H382" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I382" t="inlineStr"/>
       <c r="J382" t="inlineStr"/>
@@ -13024,7 +13024,7 @@
         <v>11734696.64593197</v>
       </c>
       <c r="H383" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I383" t="inlineStr"/>
       <c r="J383" t="inlineStr"/>
@@ -13057,7 +13057,7 @@
         <v>12574703.86763197</v>
       </c>
       <c r="H384" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I384" t="inlineStr"/>
       <c r="J384" t="inlineStr"/>
@@ -13090,7 +13090,7 @@
         <v>12800430.97393197</v>
       </c>
       <c r="H385" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I385" t="inlineStr"/>
       <c r="J385" t="inlineStr"/>
@@ -13123,7 +13123,7 @@
         <v>12863508.21793197</v>
       </c>
       <c r="H386" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I386" t="inlineStr"/>
       <c r="J386" t="inlineStr"/>
@@ -13156,7 +13156,7 @@
         <v>13020665.22693197</v>
       </c>
       <c r="H387" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I387" t="inlineStr"/>
       <c r="J387" t="inlineStr"/>
@@ -13189,7 +13189,7 @@
         <v>13392537.40453197</v>
       </c>
       <c r="H388" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I388" t="inlineStr"/>
       <c r="J388" t="inlineStr"/>
@@ -13222,7 +13222,7 @@
         <v>13946980.94373197</v>
       </c>
       <c r="H389" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I389" t="inlineStr"/>
       <c r="J389" t="inlineStr"/>
@@ -13255,7 +13255,7 @@
         <v>13548534.32173197</v>
       </c>
       <c r="H390" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I390" t="inlineStr"/>
       <c r="J390" t="inlineStr"/>
@@ -13288,7 +13288,7 @@
         <v>13463229.52573197</v>
       </c>
       <c r="H391" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I391" t="inlineStr"/>
       <c r="J391" t="inlineStr"/>
@@ -13321,7 +13321,7 @@
         <v>13811183.96413197</v>
       </c>
       <c r="H392" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I392" t="inlineStr"/>
       <c r="J392" t="inlineStr"/>
@@ -13354,7 +13354,7 @@
         <v>14069248.57033197</v>
       </c>
       <c r="H393" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I393" t="inlineStr"/>
       <c r="J393" t="inlineStr"/>
@@ -13387,7 +13387,7 @@
         <v>13878698.03133197</v>
       </c>
       <c r="H394" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I394" t="inlineStr"/>
       <c r="J394" t="inlineStr"/>
@@ -13420,7 +13420,7 @@
         <v>13681455.96733197</v>
       </c>
       <c r="H395" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I395" t="inlineStr"/>
       <c r="J395" t="inlineStr"/>
@@ -13453,7 +13453,7 @@
         <v>13579732.47533197</v>
       </c>
       <c r="H396" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I396" t="inlineStr"/>
       <c r="J396" t="inlineStr"/>
@@ -13486,7 +13486,7 @@
         <v>13576232.47533197</v>
       </c>
       <c r="H397" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I397" t="inlineStr"/>
       <c r="J397" t="inlineStr"/>
@@ -13519,7 +13519,7 @@
         <v>13471400.88313197</v>
       </c>
       <c r="H398" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I398" t="inlineStr"/>
       <c r="J398" t="inlineStr"/>
@@ -13552,7 +13552,7 @@
         <v>13364907.66643197</v>
       </c>
       <c r="H399" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I399" t="inlineStr"/>
       <c r="J399" t="inlineStr"/>
@@ -13585,7 +13585,7 @@
         <v>13457216.95843197</v>
       </c>
       <c r="H400" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I400" t="inlineStr"/>
       <c r="J400" t="inlineStr"/>
@@ -13618,7 +13618,7 @@
         <v>13457216.95843197</v>
       </c>
       <c r="H401" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I401" t="inlineStr"/>
       <c r="J401" t="inlineStr"/>
@@ -13651,7 +13651,7 @@
         <v>13583099.97133197</v>
       </c>
       <c r="H402" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I402" t="inlineStr"/>
       <c r="J402" t="inlineStr"/>
@@ -13684,7 +13684,7 @@
         <v>13540617.58023197</v>
       </c>
       <c r="H403" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I403" t="inlineStr"/>
       <c r="J403" t="inlineStr"/>
@@ -13717,7 +13717,7 @@
         <v>13310373.93493197</v>
       </c>
       <c r="H404" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I404" t="inlineStr"/>
       <c r="J404" t="inlineStr"/>
@@ -13750,7 +13750,7 @@
         <v>13586160.09313197</v>
       </c>
       <c r="H405" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I405" t="inlineStr"/>
       <c r="J405" t="inlineStr"/>
@@ -13783,7 +13783,7 @@
         <v>13442855.18163197</v>
       </c>
       <c r="H406" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I406" t="inlineStr"/>
       <c r="J406" t="inlineStr"/>
@@ -13816,7 +13816,7 @@
         <v>11274208.16703197</v>
       </c>
       <c r="H407" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I407" t="inlineStr"/>
       <c r="J407" t="inlineStr"/>
@@ -13849,7 +13849,7 @@
         <v>10545774.95173197</v>
       </c>
       <c r="H408" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I408" t="inlineStr"/>
       <c r="J408" t="inlineStr"/>
@@ -13882,7 +13882,7 @@
         <v>9053195.720331969</v>
       </c>
       <c r="H409" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I409" t="inlineStr"/>
       <c r="J409" t="inlineStr"/>
@@ -32164,10 +32164,14 @@
         <v>-23288542.59938171</v>
       </c>
       <c r="H963" t="n">
-        <v>0</v>
-      </c>
-      <c r="I963" t="inlineStr"/>
-      <c r="J963" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I963" t="n">
+        <v>3.18</v>
+      </c>
+      <c r="J963" t="n">
+        <v>3.18</v>
+      </c>
       <c r="K963" t="inlineStr"/>
       <c r="L963" t="n">
         <v>1</v>
@@ -32197,11 +32201,19 @@
         <v>-23286490.08698171</v>
       </c>
       <c r="H964" t="n">
-        <v>0</v>
-      </c>
-      <c r="I964" t="inlineStr"/>
-      <c r="J964" t="inlineStr"/>
-      <c r="K964" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I964" t="n">
+        <v>3.184</v>
+      </c>
+      <c r="J964" t="n">
+        <v>3.18</v>
+      </c>
+      <c r="K964" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L964" t="n">
         <v>1</v>
       </c>
@@ -32230,11 +32242,19 @@
         <v>-23350969.29898171</v>
       </c>
       <c r="H965" t="n">
-        <v>0</v>
-      </c>
-      <c r="I965" t="inlineStr"/>
-      <c r="J965" t="inlineStr"/>
-      <c r="K965" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I965" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="J965" t="n">
+        <v>3.18</v>
+      </c>
+      <c r="K965" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L965" t="n">
         <v>1</v>
       </c>
@@ -32263,10 +32283,14 @@
         <v>-23316126.49498171</v>
       </c>
       <c r="H966" t="n">
-        <v>0</v>
-      </c>
-      <c r="I966" t="inlineStr"/>
-      <c r="J966" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I966" t="n">
+        <v>3.186</v>
+      </c>
+      <c r="J966" t="n">
+        <v>3.186</v>
+      </c>
       <c r="K966" t="inlineStr"/>
       <c r="L966" t="n">
         <v>1</v>
@@ -32296,11 +32320,19 @@
         <v>-23190773.41378171</v>
       </c>
       <c r="H967" t="n">
-        <v>0</v>
-      </c>
-      <c r="I967" t="inlineStr"/>
-      <c r="J967" t="inlineStr"/>
-      <c r="K967" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I967" t="n">
+        <v>3.199</v>
+      </c>
+      <c r="J967" t="n">
+        <v>3.186</v>
+      </c>
+      <c r="K967" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L967" t="n">
         <v>1</v>
       </c>
@@ -32329,11 +32361,19 @@
         <v>-23102264.68178171</v>
       </c>
       <c r="H968" t="n">
-        <v>0</v>
-      </c>
-      <c r="I968" t="inlineStr"/>
-      <c r="J968" t="inlineStr"/>
-      <c r="K968" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I968" t="n">
+        <v>3.217</v>
+      </c>
+      <c r="J968" t="n">
+        <v>3.186</v>
+      </c>
+      <c r="K968" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L968" t="n">
         <v>1</v>
       </c>
@@ -32362,11 +32402,19 @@
         <v>-23265665.41778171</v>
       </c>
       <c r="H969" t="n">
-        <v>0</v>
-      </c>
-      <c r="I969" t="inlineStr"/>
-      <c r="J969" t="inlineStr"/>
-      <c r="K969" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I969" t="n">
+        <v>3.227</v>
+      </c>
+      <c r="J969" t="n">
+        <v>3.186</v>
+      </c>
+      <c r="K969" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L969" t="n">
         <v>1</v>
       </c>
@@ -32395,11 +32443,19 @@
         <v>-23154801.22278171</v>
       </c>
       <c r="H970" t="n">
-        <v>0</v>
-      </c>
-      <c r="I970" t="inlineStr"/>
-      <c r="J970" t="inlineStr"/>
-      <c r="K970" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I970" t="n">
+        <v>3.212</v>
+      </c>
+      <c r="J970" t="n">
+        <v>3.186</v>
+      </c>
+      <c r="K970" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L970" t="n">
         <v>1</v>
       </c>
@@ -32428,11 +32484,19 @@
         <v>-23193648.94678171</v>
       </c>
       <c r="H971" t="n">
-        <v>0</v>
-      </c>
-      <c r="I971" t="inlineStr"/>
-      <c r="J971" t="inlineStr"/>
-      <c r="K971" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I971" t="n">
+        <v>3.223</v>
+      </c>
+      <c r="J971" t="n">
+        <v>3.186</v>
+      </c>
+      <c r="K971" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L971" t="n">
         <v>1</v>
       </c>
@@ -32461,11 +32525,19 @@
         <v>-23128368.75078171</v>
       </c>
       <c r="H972" t="n">
-        <v>0</v>
-      </c>
-      <c r="I972" t="inlineStr"/>
-      <c r="J972" t="inlineStr"/>
-      <c r="K972" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I972" t="n">
+        <v>3.212</v>
+      </c>
+      <c r="J972" t="n">
+        <v>3.186</v>
+      </c>
+      <c r="K972" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L972" t="n">
         <v>1</v>
       </c>
@@ -32494,11 +32566,19 @@
         <v>-23023840.33878171</v>
       </c>
       <c r="H973" t="n">
-        <v>0</v>
-      </c>
-      <c r="I973" t="inlineStr"/>
-      <c r="J973" t="inlineStr"/>
-      <c r="K973" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I973" t="n">
+        <v>3.214</v>
+      </c>
+      <c r="J973" t="n">
+        <v>3.186</v>
+      </c>
+      <c r="K973" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L973" t="n">
         <v>1</v>
       </c>
@@ -32530,8 +32610,14 @@
         <v>0</v>
       </c>
       <c r="I974" t="inlineStr"/>
-      <c r="J974" t="inlineStr"/>
-      <c r="K974" t="inlineStr"/>
+      <c r="J974" t="n">
+        <v>3.186</v>
+      </c>
+      <c r="K974" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L974" t="n">
         <v>1</v>
       </c>
@@ -32563,8 +32649,14 @@
         <v>0</v>
       </c>
       <c r="I975" t="inlineStr"/>
-      <c r="J975" t="inlineStr"/>
-      <c r="K975" t="inlineStr"/>
+      <c r="J975" t="n">
+        <v>3.186</v>
+      </c>
+      <c r="K975" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L975" t="n">
         <v>1</v>
       </c>
@@ -32596,8 +32688,14 @@
         <v>0</v>
       </c>
       <c r="I976" t="inlineStr"/>
-      <c r="J976" t="inlineStr"/>
-      <c r="K976" t="inlineStr"/>
+      <c r="J976" t="n">
+        <v>3.186</v>
+      </c>
+      <c r="K976" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L976" t="n">
         <v>1</v>
       </c>
@@ -32629,8 +32727,14 @@
         <v>0</v>
       </c>
       <c r="I977" t="inlineStr"/>
-      <c r="J977" t="inlineStr"/>
-      <c r="K977" t="inlineStr"/>
+      <c r="J977" t="n">
+        <v>3.186</v>
+      </c>
+      <c r="K977" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L977" t="n">
         <v>1</v>
       </c>
@@ -32662,8 +32766,14 @@
         <v>0</v>
       </c>
       <c r="I978" t="inlineStr"/>
-      <c r="J978" t="inlineStr"/>
-      <c r="K978" t="inlineStr"/>
+      <c r="J978" t="n">
+        <v>3.186</v>
+      </c>
+      <c r="K978" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L978" t="n">
         <v>1</v>
       </c>
@@ -32695,8 +32805,14 @@
         <v>0</v>
       </c>
       <c r="I979" t="inlineStr"/>
-      <c r="J979" t="inlineStr"/>
-      <c r="K979" t="inlineStr"/>
+      <c r="J979" t="n">
+        <v>3.186</v>
+      </c>
+      <c r="K979" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L979" t="n">
         <v>1</v>
       </c>
@@ -32728,8 +32844,14 @@
         <v>0</v>
       </c>
       <c r="I980" t="inlineStr"/>
-      <c r="J980" t="inlineStr"/>
-      <c r="K980" t="inlineStr"/>
+      <c r="J980" t="n">
+        <v>3.186</v>
+      </c>
+      <c r="K980" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L980" t="n">
         <v>1</v>
       </c>
@@ -32761,8 +32883,14 @@
         <v>0</v>
       </c>
       <c r="I981" t="inlineStr"/>
-      <c r="J981" t="inlineStr"/>
-      <c r="K981" t="inlineStr"/>
+      <c r="J981" t="n">
+        <v>3.186</v>
+      </c>
+      <c r="K981" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L981" t="n">
         <v>1</v>
       </c>
@@ -32794,8 +32922,14 @@
         <v>0</v>
       </c>
       <c r="I982" t="inlineStr"/>
-      <c r="J982" t="inlineStr"/>
-      <c r="K982" t="inlineStr"/>
+      <c r="J982" t="n">
+        <v>3.186</v>
+      </c>
+      <c r="K982" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L982" t="n">
         <v>1</v>
       </c>
@@ -32827,8 +32961,14 @@
         <v>0</v>
       </c>
       <c r="I983" t="inlineStr"/>
-      <c r="J983" t="inlineStr"/>
-      <c r="K983" t="inlineStr"/>
+      <c r="J983" t="n">
+        <v>3.186</v>
+      </c>
+      <c r="K983" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L983" t="n">
         <v>1</v>
       </c>
@@ -32860,8 +33000,14 @@
         <v>0</v>
       </c>
       <c r="I984" t="inlineStr"/>
-      <c r="J984" t="inlineStr"/>
-      <c r="K984" t="inlineStr"/>
+      <c r="J984" t="n">
+        <v>3.186</v>
+      </c>
+      <c r="K984" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L984" t="n">
         <v>1</v>
       </c>
@@ -32893,8 +33039,14 @@
         <v>0</v>
       </c>
       <c r="I985" t="inlineStr"/>
-      <c r="J985" t="inlineStr"/>
-      <c r="K985" t="inlineStr"/>
+      <c r="J985" t="n">
+        <v>3.186</v>
+      </c>
+      <c r="K985" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L985" t="n">
         <v>1</v>
       </c>
@@ -32926,8 +33078,14 @@
         <v>0</v>
       </c>
       <c r="I986" t="inlineStr"/>
-      <c r="J986" t="inlineStr"/>
-      <c r="K986" t="inlineStr"/>
+      <c r="J986" t="n">
+        <v>3.186</v>
+      </c>
+      <c r="K986" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L986" t="n">
         <v>1</v>
       </c>
@@ -32959,8 +33117,14 @@
         <v>0</v>
       </c>
       <c r="I987" t="inlineStr"/>
-      <c r="J987" t="inlineStr"/>
-      <c r="K987" t="inlineStr"/>
+      <c r="J987" t="n">
+        <v>3.186</v>
+      </c>
+      <c r="K987" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L987" t="n">
         <v>1</v>
       </c>
@@ -32992,8 +33156,14 @@
         <v>0</v>
       </c>
       <c r="I988" t="inlineStr"/>
-      <c r="J988" t="inlineStr"/>
-      <c r="K988" t="inlineStr"/>
+      <c r="J988" t="n">
+        <v>3.186</v>
+      </c>
+      <c r="K988" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L988" t="n">
         <v>1</v>
       </c>
@@ -33025,8 +33195,14 @@
         <v>0</v>
       </c>
       <c r="I989" t="inlineStr"/>
-      <c r="J989" t="inlineStr"/>
-      <c r="K989" t="inlineStr"/>
+      <c r="J989" t="n">
+        <v>3.186</v>
+      </c>
+      <c r="K989" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L989" t="n">
         <v>1</v>
       </c>
@@ -33058,8 +33234,14 @@
         <v>0</v>
       </c>
       <c r="I990" t="inlineStr"/>
-      <c r="J990" t="inlineStr"/>
-      <c r="K990" t="inlineStr"/>
+      <c r="J990" t="n">
+        <v>3.186</v>
+      </c>
+      <c r="K990" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L990" t="n">
         <v>1</v>
       </c>
@@ -33091,8 +33273,14 @@
         <v>0</v>
       </c>
       <c r="I991" t="inlineStr"/>
-      <c r="J991" t="inlineStr"/>
-      <c r="K991" t="inlineStr"/>
+      <c r="J991" t="n">
+        <v>3.186</v>
+      </c>
+      <c r="K991" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L991" t="n">
         <v>1</v>
       </c>
@@ -33124,8 +33312,14 @@
         <v>0</v>
       </c>
       <c r="I992" t="inlineStr"/>
-      <c r="J992" t="inlineStr"/>
-      <c r="K992" t="inlineStr"/>
+      <c r="J992" t="n">
+        <v>3.186</v>
+      </c>
+      <c r="K992" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L992" t="n">
         <v>1</v>
       </c>
@@ -33157,8 +33351,14 @@
         <v>0</v>
       </c>
       <c r="I993" t="inlineStr"/>
-      <c r="J993" t="inlineStr"/>
-      <c r="K993" t="inlineStr"/>
+      <c r="J993" t="n">
+        <v>3.186</v>
+      </c>
+      <c r="K993" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L993" t="n">
         <v>1</v>
       </c>
@@ -33190,8 +33390,14 @@
         <v>0</v>
       </c>
       <c r="I994" t="inlineStr"/>
-      <c r="J994" t="inlineStr"/>
-      <c r="K994" t="inlineStr"/>
+      <c r="J994" t="n">
+        <v>3.186</v>
+      </c>
+      <c r="K994" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L994" t="n">
         <v>1</v>
       </c>
@@ -33223,8 +33429,14 @@
         <v>0</v>
       </c>
       <c r="I995" t="inlineStr"/>
-      <c r="J995" t="inlineStr"/>
-      <c r="K995" t="inlineStr"/>
+      <c r="J995" t="n">
+        <v>3.186</v>
+      </c>
+      <c r="K995" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L995" t="n">
         <v>1</v>
       </c>
@@ -33256,8 +33468,14 @@
         <v>0</v>
       </c>
       <c r="I996" t="inlineStr"/>
-      <c r="J996" t="inlineStr"/>
-      <c r="K996" t="inlineStr"/>
+      <c r="J996" t="n">
+        <v>3.186</v>
+      </c>
+      <c r="K996" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L996" t="n">
         <v>1</v>
       </c>
@@ -33289,8 +33507,14 @@
         <v>0</v>
       </c>
       <c r="I997" t="inlineStr"/>
-      <c r="J997" t="inlineStr"/>
-      <c r="K997" t="inlineStr"/>
+      <c r="J997" t="n">
+        <v>3.186</v>
+      </c>
+      <c r="K997" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L997" t="n">
         <v>1</v>
       </c>
@@ -33322,8 +33546,14 @@
         <v>0</v>
       </c>
       <c r="I998" t="inlineStr"/>
-      <c r="J998" t="inlineStr"/>
-      <c r="K998" t="inlineStr"/>
+      <c r="J998" t="n">
+        <v>3.186</v>
+      </c>
+      <c r="K998" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L998" t="n">
         <v>1</v>
       </c>
@@ -33355,8 +33585,14 @@
         <v>0</v>
       </c>
       <c r="I999" t="inlineStr"/>
-      <c r="J999" t="inlineStr"/>
-      <c r="K999" t="inlineStr"/>
+      <c r="J999" t="n">
+        <v>3.186</v>
+      </c>
+      <c r="K999" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L999" t="n">
         <v>1</v>
       </c>
@@ -33388,8 +33624,14 @@
         <v>0</v>
       </c>
       <c r="I1000" t="inlineStr"/>
-      <c r="J1000" t="inlineStr"/>
-      <c r="K1000" t="inlineStr"/>
+      <c r="J1000" t="n">
+        <v>3.186</v>
+      </c>
+      <c r="K1000" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1000" t="n">
         <v>1</v>
       </c>
@@ -33421,8 +33663,14 @@
         <v>0</v>
       </c>
       <c r="I1001" t="inlineStr"/>
-      <c r="J1001" t="inlineStr"/>
-      <c r="K1001" t="inlineStr"/>
+      <c r="J1001" t="n">
+        <v>3.186</v>
+      </c>
+      <c r="K1001" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1001" t="n">
         <v>1</v>
       </c>
@@ -33454,8 +33702,14 @@
         <v>0</v>
       </c>
       <c r="I1002" t="inlineStr"/>
-      <c r="J1002" t="inlineStr"/>
-      <c r="K1002" t="inlineStr"/>
+      <c r="J1002" t="n">
+        <v>3.186</v>
+      </c>
+      <c r="K1002" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1002" t="n">
         <v>1</v>
       </c>
@@ -33487,8 +33741,14 @@
         <v>0</v>
       </c>
       <c r="I1003" t="inlineStr"/>
-      <c r="J1003" t="inlineStr"/>
-      <c r="K1003" t="inlineStr"/>
+      <c r="J1003" t="n">
+        <v>3.186</v>
+      </c>
+      <c r="K1003" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1003" t="n">
         <v>1</v>
       </c>
@@ -33520,8 +33780,14 @@
         <v>0</v>
       </c>
       <c r="I1004" t="inlineStr"/>
-      <c r="J1004" t="inlineStr"/>
-      <c r="K1004" t="inlineStr"/>
+      <c r="J1004" t="n">
+        <v>3.186</v>
+      </c>
+      <c r="K1004" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1004" t="n">
         <v>1</v>
       </c>
@@ -33553,8 +33819,14 @@
         <v>0</v>
       </c>
       <c r="I1005" t="inlineStr"/>
-      <c r="J1005" t="inlineStr"/>
-      <c r="K1005" t="inlineStr"/>
+      <c r="J1005" t="n">
+        <v>3.186</v>
+      </c>
+      <c r="K1005" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1005" t="n">
         <v>1</v>
       </c>
@@ -33586,8 +33858,14 @@
         <v>0</v>
       </c>
       <c r="I1006" t="inlineStr"/>
-      <c r="J1006" t="inlineStr"/>
-      <c r="K1006" t="inlineStr"/>
+      <c r="J1006" t="n">
+        <v>3.186</v>
+      </c>
+      <c r="K1006" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1006" t="n">
         <v>1</v>
       </c>
@@ -33619,8 +33897,14 @@
         <v>0</v>
       </c>
       <c r="I1007" t="inlineStr"/>
-      <c r="J1007" t="inlineStr"/>
-      <c r="K1007" t="inlineStr"/>
+      <c r="J1007" t="n">
+        <v>3.186</v>
+      </c>
+      <c r="K1007" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1007" t="n">
         <v>1</v>
       </c>
@@ -33652,8 +33936,14 @@
         <v>0</v>
       </c>
       <c r="I1008" t="inlineStr"/>
-      <c r="J1008" t="inlineStr"/>
-      <c r="K1008" t="inlineStr"/>
+      <c r="J1008" t="n">
+        <v>3.186</v>
+      </c>
+      <c r="K1008" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1008" t="n">
         <v>1</v>
       </c>
@@ -33682,11 +33972,19 @@
         <v>-28062036.13868171</v>
       </c>
       <c r="H1009" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1009" t="inlineStr"/>
-      <c r="J1009" t="inlineStr"/>
-      <c r="K1009" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1009" t="n">
+        <v>3.187</v>
+      </c>
+      <c r="J1009" t="n">
+        <v>3.186</v>
+      </c>
+      <c r="K1009" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1009" t="n">
         <v>1</v>
       </c>
@@ -33718,8 +34016,14 @@
         <v>0</v>
       </c>
       <c r="I1010" t="inlineStr"/>
-      <c r="J1010" t="inlineStr"/>
-      <c r="K1010" t="inlineStr"/>
+      <c r="J1010" t="n">
+        <v>3.186</v>
+      </c>
+      <c r="K1010" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1010" t="n">
         <v>1</v>
       </c>
@@ -33748,11 +34052,19 @@
         <v>-28222144.8306817</v>
       </c>
       <c r="H1011" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1011" t="inlineStr"/>
-      <c r="J1011" t="inlineStr"/>
-      <c r="K1011" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1011" t="n">
+        <v>3.184</v>
+      </c>
+      <c r="J1011" t="n">
+        <v>3.186</v>
+      </c>
+      <c r="K1011" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1011" t="n">
         <v>1</v>
       </c>
@@ -33781,11 +34093,19 @@
         <v>-28267400.4266817</v>
       </c>
       <c r="H1012" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1012" t="inlineStr"/>
-      <c r="J1012" t="inlineStr"/>
-      <c r="K1012" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1012" t="n">
+        <v>3.178</v>
+      </c>
+      <c r="J1012" t="n">
+        <v>3.186</v>
+      </c>
+      <c r="K1012" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1012" t="n">
         <v>1</v>
       </c>
@@ -33814,11 +34134,19 @@
         <v>-28069364.90188171</v>
       </c>
       <c r="H1013" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1013" t="inlineStr"/>
-      <c r="J1013" t="inlineStr"/>
-      <c r="K1013" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1013" t="n">
+        <v>3.174</v>
+      </c>
+      <c r="J1013" t="n">
+        <v>3.186</v>
+      </c>
+      <c r="K1013" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1013" t="n">
         <v>1</v>
       </c>
@@ -33847,11 +34175,19 @@
         <v>-27961632.5538817</v>
       </c>
       <c r="H1014" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1014" t="inlineStr"/>
-      <c r="J1014" t="inlineStr"/>
-      <c r="K1014" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1014" t="n">
+        <v>3.196</v>
+      </c>
+      <c r="J1014" t="n">
+        <v>3.186</v>
+      </c>
+      <c r="K1014" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1014" t="n">
         <v>1</v>
       </c>
@@ -33880,11 +34216,19 @@
         <v>-28121829.35388171</v>
       </c>
       <c r="H1015" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1015" t="inlineStr"/>
-      <c r="J1015" t="inlineStr"/>
-      <c r="K1015" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1015" t="n">
+        <v>3.198</v>
+      </c>
+      <c r="J1015" t="n">
+        <v>3.186</v>
+      </c>
+      <c r="K1015" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1015" t="n">
         <v>1</v>
       </c>
@@ -33913,11 +34257,19 @@
         <v>-28399891.76768171</v>
       </c>
       <c r="H1016" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1016" t="inlineStr"/>
-      <c r="J1016" t="inlineStr"/>
-      <c r="K1016" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1016" t="n">
+        <v>3.194</v>
+      </c>
+      <c r="J1016" t="n">
+        <v>3.186</v>
+      </c>
+      <c r="K1016" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1016" t="n">
         <v>1</v>
       </c>
@@ -33946,11 +34298,19 @@
         <v>-28308179.09968171</v>
       </c>
       <c r="H1017" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1017" t="inlineStr"/>
-      <c r="J1017" t="inlineStr"/>
-      <c r="K1017" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1017" t="n">
+        <v>3.18</v>
+      </c>
+      <c r="J1017" t="n">
+        <v>3.186</v>
+      </c>
+      <c r="K1017" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1017" t="n">
         <v>1</v>
       </c>
@@ -33979,11 +34339,19 @@
         <v>-28381469.1356817</v>
       </c>
       <c r="H1018" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1018" t="inlineStr"/>
-      <c r="J1018" t="inlineStr"/>
-      <c r="K1018" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1018" t="n">
+        <v>3.198</v>
+      </c>
+      <c r="J1018" t="n">
+        <v>3.186</v>
+      </c>
+      <c r="K1018" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1018" t="n">
         <v>1</v>
       </c>
@@ -34012,11 +34380,19 @@
         <v>-28259050.8491817</v>
       </c>
       <c r="H1019" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1019" t="inlineStr"/>
-      <c r="J1019" t="inlineStr"/>
-      <c r="K1019" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1019" t="n">
+        <v>3.197</v>
+      </c>
+      <c r="J1019" t="n">
+        <v>3.186</v>
+      </c>
+      <c r="K1019" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1019" t="n">
         <v>1</v>
       </c>
@@ -34045,11 +34421,19 @@
         <v>-28186561.7971817</v>
       </c>
       <c r="H1020" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1020" t="inlineStr"/>
-      <c r="J1020" t="inlineStr"/>
-      <c r="K1020" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1020" t="n">
+        <v>3.21</v>
+      </c>
+      <c r="J1020" t="n">
+        <v>3.186</v>
+      </c>
+      <c r="K1020" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1020" t="n">
         <v>1</v>
       </c>
@@ -34078,11 +34462,19 @@
         <v>-28127689.4731817</v>
       </c>
       <c r="H1021" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1021" t="inlineStr"/>
-      <c r="J1021" t="inlineStr"/>
-      <c r="K1021" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1021" t="n">
+        <v>3.216</v>
+      </c>
+      <c r="J1021" t="n">
+        <v>3.186</v>
+      </c>
+      <c r="K1021" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1021" t="n">
         <v>1</v>
       </c>
@@ -34111,11 +34503,19 @@
         <v>-28043353.80528108</v>
       </c>
       <c r="H1022" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1022" t="inlineStr"/>
-      <c r="J1022" t="inlineStr"/>
-      <c r="K1022" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1022" t="n">
+        <v>3.218</v>
+      </c>
+      <c r="J1022" t="n">
+        <v>3.186</v>
+      </c>
+      <c r="K1022" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1022" t="n">
         <v>1</v>
       </c>
@@ -34144,11 +34544,19 @@
         <v>-28133464.50528108</v>
       </c>
       <c r="H1023" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1023" t="inlineStr"/>
-      <c r="J1023" t="inlineStr"/>
-      <c r="K1023" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1023" t="n">
+        <v>3.22</v>
+      </c>
+      <c r="J1023" t="n">
+        <v>3.186</v>
+      </c>
+      <c r="K1023" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1023" t="n">
         <v>1</v>
       </c>
@@ -34177,11 +34585,19 @@
         <v>-28180025.70528108</v>
       </c>
       <c r="H1024" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1024" t="inlineStr"/>
-      <c r="J1024" t="inlineStr"/>
-      <c r="K1024" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1024" t="n">
+        <v>3.219</v>
+      </c>
+      <c r="J1024" t="n">
+        <v>3.186</v>
+      </c>
+      <c r="K1024" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1024" t="n">
         <v>1</v>
       </c>
@@ -34210,11 +34626,19 @@
         <v>-28257320.66128108</v>
       </c>
       <c r="H1025" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1025" t="inlineStr"/>
-      <c r="J1025" t="inlineStr"/>
-      <c r="K1025" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1025" t="n">
+        <v>3.218</v>
+      </c>
+      <c r="J1025" t="n">
+        <v>3.186</v>
+      </c>
+      <c r="K1025" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1025" t="n">
         <v>1</v>
       </c>
@@ -34243,11 +34667,19 @@
         <v>-28129964.20528108</v>
       </c>
       <c r="H1026" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1026" t="inlineStr"/>
-      <c r="J1026" t="inlineStr"/>
-      <c r="K1026" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1026" t="n">
+        <v>3.216</v>
+      </c>
+      <c r="J1026" t="n">
+        <v>3.186</v>
+      </c>
+      <c r="K1026" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1026" t="n">
         <v>1</v>
       </c>
@@ -34276,11 +34708,19 @@
         <v>-27993661.5376817</v>
       </c>
       <c r="H1027" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1027" t="inlineStr"/>
-      <c r="J1027" t="inlineStr"/>
-      <c r="K1027" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1027" t="n">
+        <v>3.219</v>
+      </c>
+      <c r="J1027" t="n">
+        <v>3.186</v>
+      </c>
+      <c r="K1027" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1027" t="n">
         <v>1</v>
       </c>
@@ -34309,11 +34749,19 @@
         <v>-27896341.9816817</v>
       </c>
       <c r="H1028" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1028" t="inlineStr"/>
-      <c r="J1028" t="inlineStr"/>
-      <c r="K1028" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1028" t="n">
+        <v>3.22</v>
+      </c>
+      <c r="J1028" t="n">
+        <v>3.186</v>
+      </c>
+      <c r="K1028" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1028" t="n">
         <v>1</v>
       </c>
@@ -34342,11 +34790,19 @@
         <v>-27896341.9816817</v>
       </c>
       <c r="H1029" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1029" t="inlineStr"/>
-      <c r="J1029" t="inlineStr"/>
-      <c r="K1029" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1029" t="n">
+        <v>3.221</v>
+      </c>
+      <c r="J1029" t="n">
+        <v>3.186</v>
+      </c>
+      <c r="K1029" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1029" t="n">
         <v>1</v>
       </c>
@@ -34375,11 +34831,19 @@
         <v>-27776579.1536817</v>
       </c>
       <c r="H1030" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1030" t="inlineStr"/>
-      <c r="J1030" t="inlineStr"/>
-      <c r="K1030" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1030" t="n">
+        <v>3.221</v>
+      </c>
+      <c r="J1030" t="n">
+        <v>3.186</v>
+      </c>
+      <c r="K1030" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1030" t="n">
         <v>1</v>
       </c>
@@ -34408,11 +34872,19 @@
         <v>-27862684.9336817</v>
       </c>
       <c r="H1031" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1031" t="inlineStr"/>
-      <c r="J1031" t="inlineStr"/>
-      <c r="K1031" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1031" t="n">
+        <v>3.23</v>
+      </c>
+      <c r="J1031" t="n">
+        <v>3.186</v>
+      </c>
+      <c r="K1031" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1031" t="n">
         <v>1</v>
       </c>
@@ -34441,11 +34913,19 @@
         <v>-27753996.6016817</v>
       </c>
       <c r="H1032" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1032" t="inlineStr"/>
-      <c r="J1032" t="inlineStr"/>
-      <c r="K1032" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1032" t="n">
+        <v>3.225</v>
+      </c>
+      <c r="J1032" t="n">
+        <v>3.186</v>
+      </c>
+      <c r="K1032" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1032" t="n">
         <v>1</v>
       </c>
@@ -34474,11 +34954,19 @@
         <v>-27855321.0776817</v>
       </c>
       <c r="H1033" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1033" t="inlineStr"/>
-      <c r="J1033" t="inlineStr"/>
-      <c r="K1033" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1033" t="n">
+        <v>3.24</v>
+      </c>
+      <c r="J1033" t="n">
+        <v>3.186</v>
+      </c>
+      <c r="K1033" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1033" t="n">
         <v>1</v>
       </c>
@@ -34507,11 +34995,19 @@
         <v>-27794012.7568817</v>
       </c>
       <c r="H1034" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1034" t="inlineStr"/>
-      <c r="J1034" t="inlineStr"/>
-      <c r="K1034" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1034" t="n">
+        <v>3.233</v>
+      </c>
+      <c r="J1034" t="n">
+        <v>3.186</v>
+      </c>
+      <c r="K1034" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1034" t="n">
         <v>1</v>
       </c>
@@ -34540,11 +35036,19 @@
         <v>-27794012.7568817</v>
       </c>
       <c r="H1035" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1035" t="inlineStr"/>
-      <c r="J1035" t="inlineStr"/>
-      <c r="K1035" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1035" t="n">
+        <v>3.24</v>
+      </c>
+      <c r="J1035" t="n">
+        <v>3.186</v>
+      </c>
+      <c r="K1035" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1035" t="n">
         <v>1</v>
       </c>
@@ -34576,8 +35080,14 @@
         <v>0</v>
       </c>
       <c r="I1036" t="inlineStr"/>
-      <c r="J1036" t="inlineStr"/>
-      <c r="K1036" t="inlineStr"/>
+      <c r="J1036" t="n">
+        <v>3.186</v>
+      </c>
+      <c r="K1036" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1036" t="n">
         <v>1</v>
       </c>
@@ -34609,8 +35119,14 @@
         <v>0</v>
       </c>
       <c r="I1037" t="inlineStr"/>
-      <c r="J1037" t="inlineStr"/>
-      <c r="K1037" t="inlineStr"/>
+      <c r="J1037" t="n">
+        <v>3.186</v>
+      </c>
+      <c r="K1037" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1037" t="n">
         <v>1</v>
       </c>
@@ -34642,8 +35158,14 @@
         <v>0</v>
       </c>
       <c r="I1038" t="inlineStr"/>
-      <c r="J1038" t="inlineStr"/>
-      <c r="K1038" t="inlineStr"/>
+      <c r="J1038" t="n">
+        <v>3.186</v>
+      </c>
+      <c r="K1038" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1038" t="n">
         <v>1</v>
       </c>
@@ -34675,8 +35197,14 @@
         <v>0</v>
       </c>
       <c r="I1039" t="inlineStr"/>
-      <c r="J1039" t="inlineStr"/>
-      <c r="K1039" t="inlineStr"/>
+      <c r="J1039" t="n">
+        <v>3.186</v>
+      </c>
+      <c r="K1039" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1039" t="n">
         <v>1</v>
       </c>
@@ -34708,8 +35236,14 @@
         <v>0</v>
       </c>
       <c r="I1040" t="inlineStr"/>
-      <c r="J1040" t="inlineStr"/>
-      <c r="K1040" t="inlineStr"/>
+      <c r="J1040" t="n">
+        <v>3.186</v>
+      </c>
+      <c r="K1040" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1040" t="n">
         <v>1</v>
       </c>
@@ -34738,11 +35272,19 @@
         <v>-28148748.2069817</v>
       </c>
       <c r="H1041" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1041" t="inlineStr"/>
-      <c r="J1041" t="inlineStr"/>
-      <c r="K1041" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1041" t="n">
+        <v>3.235</v>
+      </c>
+      <c r="J1041" t="n">
+        <v>3.186</v>
+      </c>
+      <c r="K1041" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1041" t="n">
         <v>1</v>
       </c>
@@ -34774,8 +35316,14 @@
         <v>0</v>
       </c>
       <c r="I1042" t="inlineStr"/>
-      <c r="J1042" t="inlineStr"/>
-      <c r="K1042" t="inlineStr"/>
+      <c r="J1042" t="n">
+        <v>3.186</v>
+      </c>
+      <c r="K1042" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1042" t="n">
         <v>1</v>
       </c>
@@ -34807,8 +35355,14 @@
         <v>0</v>
       </c>
       <c r="I1043" t="inlineStr"/>
-      <c r="J1043" t="inlineStr"/>
-      <c r="K1043" t="inlineStr"/>
+      <c r="J1043" t="n">
+        <v>3.186</v>
+      </c>
+      <c r="K1043" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1043" t="n">
         <v>1</v>
       </c>
@@ -34837,11 +35391,19 @@
         <v>-28376254.6449817</v>
       </c>
       <c r="H1044" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1044" t="inlineStr"/>
-      <c r="J1044" t="inlineStr"/>
-      <c r="K1044" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1044" t="n">
+        <v>3.21</v>
+      </c>
+      <c r="J1044" t="n">
+        <v>3.186</v>
+      </c>
+      <c r="K1044" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1044" t="n">
         <v>1</v>
       </c>
@@ -34870,11 +35432,19 @@
         <v>-28325392.1609817</v>
       </c>
       <c r="H1045" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1045" t="inlineStr"/>
-      <c r="J1045" t="inlineStr"/>
-      <c r="K1045" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1045" t="n">
+        <v>3.221</v>
+      </c>
+      <c r="J1045" t="n">
+        <v>3.186</v>
+      </c>
+      <c r="K1045" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1045" t="n">
         <v>1</v>
       </c>
@@ -34903,11 +35473,19 @@
         <v>-28486389.9449817</v>
       </c>
       <c r="H1046" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1046" t="inlineStr"/>
-      <c r="J1046" t="inlineStr"/>
-      <c r="K1046" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1046" t="n">
+        <v>3.222</v>
+      </c>
+      <c r="J1046" t="n">
+        <v>3.186</v>
+      </c>
+      <c r="K1046" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1046" t="n">
         <v>1</v>
       </c>
@@ -34936,11 +35514,19 @@
         <v>-28371048.2489817</v>
       </c>
       <c r="H1047" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1047" t="inlineStr"/>
-      <c r="J1047" t="inlineStr"/>
-      <c r="K1047" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1047" t="n">
+        <v>3.205</v>
+      </c>
+      <c r="J1047" t="n">
+        <v>3.186</v>
+      </c>
+      <c r="K1047" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1047" t="n">
         <v>1</v>
       </c>
@@ -34969,11 +35555,19 @@
         <v>-28321787.7329817</v>
       </c>
       <c r="H1048" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1048" t="inlineStr"/>
-      <c r="J1048" t="inlineStr"/>
-      <c r="K1048" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1048" t="n">
+        <v>3.228</v>
+      </c>
+      <c r="J1048" t="n">
+        <v>3.186</v>
+      </c>
+      <c r="K1048" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1048" t="n">
         <v>1</v>
       </c>
@@ -35002,11 +35596,19 @@
         <v>-28310500.9803817</v>
       </c>
       <c r="H1049" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1049" t="inlineStr"/>
-      <c r="J1049" t="inlineStr"/>
-      <c r="K1049" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1049" t="n">
+        <v>3.229</v>
+      </c>
+      <c r="J1049" t="n">
+        <v>3.186</v>
+      </c>
+      <c r="K1049" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1049" t="n">
         <v>1</v>
       </c>
@@ -35035,11 +35637,19 @@
         <v>-28385392.9843817</v>
       </c>
       <c r="H1050" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1050" t="inlineStr"/>
-      <c r="J1050" t="inlineStr"/>
-      <c r="K1050" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1050" t="n">
+        <v>3.23</v>
+      </c>
+      <c r="J1050" t="n">
+        <v>3.186</v>
+      </c>
+      <c r="K1050" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1050" t="n">
         <v>1</v>
       </c>
@@ -35068,11 +35678,19 @@
         <v>-28421837.7563817</v>
       </c>
       <c r="H1051" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1051" t="inlineStr"/>
-      <c r="J1051" t="inlineStr"/>
-      <c r="K1051" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1051" t="n">
+        <v>3.224</v>
+      </c>
+      <c r="J1051" t="n">
+        <v>3.186</v>
+      </c>
+      <c r="K1051" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1051" t="n">
         <v>1</v>
       </c>
@@ -35101,11 +35719,19 @@
         <v>-28371621.2563817</v>
       </c>
       <c r="H1052" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1052" t="inlineStr"/>
-      <c r="J1052" t="inlineStr"/>
-      <c r="K1052" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1052" t="n">
+        <v>3.206</v>
+      </c>
+      <c r="J1052" t="n">
+        <v>3.186</v>
+      </c>
+      <c r="K1052" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1052" t="n">
         <v>1</v>
       </c>
@@ -35134,11 +35760,19 @@
         <v>-28371466.2563817</v>
       </c>
       <c r="H1053" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1053" t="inlineStr"/>
-      <c r="J1053" t="inlineStr"/>
-      <c r="K1053" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1053" t="n">
+        <v>3.219</v>
+      </c>
+      <c r="J1053" t="n">
+        <v>3.186</v>
+      </c>
+      <c r="K1053" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1053" t="n">
         <v>1</v>
       </c>
@@ -35167,11 +35801,19 @@
         <v>-28408712.0123817</v>
       </c>
       <c r="H1054" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1054" t="inlineStr"/>
-      <c r="J1054" t="inlineStr"/>
-      <c r="K1054" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1054" t="n">
+        <v>3.23</v>
+      </c>
+      <c r="J1054" t="n">
+        <v>3.186</v>
+      </c>
+      <c r="K1054" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1054" t="n">
         <v>1</v>
       </c>
@@ -35200,11 +35842,19 @@
         <v>-28352242.6403817</v>
       </c>
       <c r="H1055" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1055" t="inlineStr"/>
-      <c r="J1055" t="inlineStr"/>
-      <c r="K1055" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1055" t="n">
+        <v>3.225</v>
+      </c>
+      <c r="J1055" t="n">
+        <v>3.186</v>
+      </c>
+      <c r="K1055" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1055" t="n">
         <v>1</v>
       </c>
@@ -35233,11 +35883,19 @@
         <v>-28296600.7694817</v>
       </c>
       <c r="H1056" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1056" t="inlineStr"/>
-      <c r="J1056" t="inlineStr"/>
-      <c r="K1056" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1056" t="n">
+        <v>3.227</v>
+      </c>
+      <c r="J1056" t="n">
+        <v>3.186</v>
+      </c>
+      <c r="K1056" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1056" t="n">
         <v>1</v>
       </c>
@@ -35266,11 +35924,19 @@
         <v>-28350667.1894817</v>
       </c>
       <c r="H1057" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1057" t="inlineStr"/>
-      <c r="J1057" t="inlineStr"/>
-      <c r="K1057" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1057" t="n">
+        <v>3.23</v>
+      </c>
+      <c r="J1057" t="n">
+        <v>3.186</v>
+      </c>
+      <c r="K1057" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1057" t="n">
         <v>1</v>
       </c>
@@ -35305,9 +35971,13 @@
         <v>3.213</v>
       </c>
       <c r="J1058" t="n">
-        <v>3.213</v>
-      </c>
-      <c r="K1058" t="inlineStr"/>
+        <v>3.186</v>
+      </c>
+      <c r="K1058" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1058" t="n">
         <v>1</v>
       </c>
@@ -35342,11 +36012,11 @@
         <v>3.212</v>
       </c>
       <c r="J1059" t="n">
-        <v>3.213</v>
+        <v>3.186</v>
       </c>
       <c r="K1059" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L1059" t="n">
@@ -35383,11 +36053,11 @@
         <v>3.205</v>
       </c>
       <c r="J1060" t="n">
-        <v>3.213</v>
+        <v>3.186</v>
       </c>
       <c r="K1060" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L1060" t="n">
@@ -35424,9 +36094,13 @@
         <v>3.201</v>
       </c>
       <c r="J1061" t="n">
-        <v>3.201</v>
-      </c>
-      <c r="K1061" t="inlineStr"/>
+        <v>3.186</v>
+      </c>
+      <c r="K1061" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1061" t="n">
         <v>1</v>
       </c>
@@ -35461,11 +36135,11 @@
         <v>3.227</v>
       </c>
       <c r="J1062" t="n">
-        <v>3.201</v>
+        <v>3.186</v>
       </c>
       <c r="K1062" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L1062" t="n">
@@ -35496,15 +36170,17 @@
         <v>-28556647.8999817</v>
       </c>
       <c r="H1063" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1063" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1063" t="n">
+        <v>3.226</v>
+      </c>
       <c r="J1063" t="n">
-        <v>3.201</v>
+        <v>3.186</v>
       </c>
       <c r="K1063" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L1063" t="n">
@@ -35541,9 +36217,13 @@
         <v>3.216</v>
       </c>
       <c r="J1064" t="n">
-        <v>3.216</v>
-      </c>
-      <c r="K1064" t="inlineStr"/>
+        <v>3.186</v>
+      </c>
+      <c r="K1064" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1064" t="n">
         <v>1</v>
       </c>
@@ -35578,11 +36258,11 @@
         <v>3.2</v>
       </c>
       <c r="J1065" t="n">
-        <v>3.216</v>
+        <v>3.186</v>
       </c>
       <c r="K1065" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L1065" t="n">
@@ -35619,7 +36299,7 @@
         <v>3.211</v>
       </c>
       <c r="J1066" t="n">
-        <v>3.216</v>
+        <v>3.186</v>
       </c>
       <c r="K1066" t="inlineStr">
         <is>
@@ -35654,11 +36334,13 @@
         <v>-28270853.7994817</v>
       </c>
       <c r="H1067" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1067" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1067" t="n">
+        <v>3.218</v>
+      </c>
       <c r="J1067" t="n">
-        <v>3.216</v>
+        <v>3.186</v>
       </c>
       <c r="K1067" t="inlineStr">
         <is>
@@ -35699,7 +36381,7 @@
         <v>3.227</v>
       </c>
       <c r="J1068" t="n">
-        <v>3.216</v>
+        <v>3.186</v>
       </c>
       <c r="K1068" t="inlineStr">
         <is>
@@ -35740,7 +36422,7 @@
         <v>3.198</v>
       </c>
       <c r="J1069" t="n">
-        <v>3.216</v>
+        <v>3.186</v>
       </c>
       <c r="K1069" t="inlineStr">
         <is>
@@ -35781,7 +36463,7 @@
         <v>3.207</v>
       </c>
       <c r="J1070" t="n">
-        <v>3.216</v>
+        <v>3.186</v>
       </c>
       <c r="K1070" t="inlineStr">
         <is>
@@ -35822,7 +36504,7 @@
         <v>3.206</v>
       </c>
       <c r="J1071" t="n">
-        <v>3.216</v>
+        <v>3.186</v>
       </c>
       <c r="K1071" t="inlineStr">
         <is>
@@ -35863,7 +36545,7 @@
         <v>3.211</v>
       </c>
       <c r="J1072" t="n">
-        <v>3.216</v>
+        <v>3.186</v>
       </c>
       <c r="K1072" t="inlineStr">
         <is>
@@ -35904,7 +36586,7 @@
         <v>3.206</v>
       </c>
       <c r="J1073" t="n">
-        <v>3.216</v>
+        <v>3.186</v>
       </c>
       <c r="K1073" t="inlineStr">
         <is>
@@ -35945,7 +36627,7 @@
         <v>3.209</v>
       </c>
       <c r="J1074" t="n">
-        <v>3.216</v>
+        <v>3.186</v>
       </c>
       <c r="K1074" t="inlineStr">
         <is>
@@ -35986,7 +36668,7 @@
         <v>3.207</v>
       </c>
       <c r="J1075" t="n">
-        <v>3.216</v>
+        <v>3.186</v>
       </c>
       <c r="K1075" t="inlineStr">
         <is>
@@ -36027,7 +36709,7 @@
         <v>3.215</v>
       </c>
       <c r="J1076" t="n">
-        <v>3.216</v>
+        <v>3.186</v>
       </c>
       <c r="K1076" t="inlineStr">
         <is>
@@ -36068,7 +36750,7 @@
         <v>3.212</v>
       </c>
       <c r="J1077" t="n">
-        <v>3.216</v>
+        <v>3.186</v>
       </c>
       <c r="K1077" t="inlineStr">
         <is>
@@ -36109,7 +36791,7 @@
         <v>3.209</v>
       </c>
       <c r="J1078" t="n">
-        <v>3.216</v>
+        <v>3.186</v>
       </c>
       <c r="K1078" t="inlineStr">
         <is>
@@ -36150,7 +36832,7 @@
         <v>3.21</v>
       </c>
       <c r="J1079" t="n">
-        <v>3.216</v>
+        <v>3.186</v>
       </c>
       <c r="K1079" t="inlineStr">
         <is>
@@ -36191,7 +36873,7 @@
         <v>3.223</v>
       </c>
       <c r="J1080" t="n">
-        <v>3.216</v>
+        <v>3.186</v>
       </c>
       <c r="K1080" t="inlineStr">
         <is>
@@ -36232,7 +36914,7 @@
         <v>3.222</v>
       </c>
       <c r="J1081" t="n">
-        <v>3.216</v>
+        <v>3.186</v>
       </c>
       <c r="K1081" t="inlineStr">
         <is>
@@ -36273,7 +36955,7 @@
         <v>3.224</v>
       </c>
       <c r="J1082" t="n">
-        <v>3.216</v>
+        <v>3.186</v>
       </c>
       <c r="K1082" t="inlineStr">
         <is>
@@ -36314,7 +36996,7 @@
         <v>3.227</v>
       </c>
       <c r="J1083" t="n">
-        <v>3.216</v>
+        <v>3.186</v>
       </c>
       <c r="K1083" t="inlineStr">
         <is>
@@ -36355,7 +37037,7 @@
         <v>3.227</v>
       </c>
       <c r="J1084" t="n">
-        <v>3.216</v>
+        <v>3.186</v>
       </c>
       <c r="K1084" t="inlineStr">
         <is>
@@ -36396,7 +37078,7 @@
         <v>3.227</v>
       </c>
       <c r="J1085" t="n">
-        <v>3.216</v>
+        <v>3.186</v>
       </c>
       <c r="K1085" t="inlineStr">
         <is>
@@ -36437,7 +37119,7 @@
         <v>3.227</v>
       </c>
       <c r="J1086" t="n">
-        <v>3.216</v>
+        <v>3.186</v>
       </c>
       <c r="K1086" t="inlineStr">
         <is>
@@ -36478,7 +37160,7 @@
         <v>3.228</v>
       </c>
       <c r="J1087" t="n">
-        <v>3.216</v>
+        <v>3.186</v>
       </c>
       <c r="K1087" t="inlineStr">
         <is>
@@ -36519,7 +37201,7 @@
         <v>3.227</v>
       </c>
       <c r="J1088" t="n">
-        <v>3.216</v>
+        <v>3.186</v>
       </c>
       <c r="K1088" t="inlineStr">
         <is>
@@ -36560,7 +37242,7 @@
         <v>3.216</v>
       </c>
       <c r="J1089" t="n">
-        <v>3.216</v>
+        <v>3.186</v>
       </c>
       <c r="K1089" t="inlineStr">
         <is>
@@ -36601,7 +37283,7 @@
         <v>3.216</v>
       </c>
       <c r="J1090" t="n">
-        <v>3.216</v>
+        <v>3.186</v>
       </c>
       <c r="K1090" t="inlineStr">
         <is>
@@ -36642,7 +37324,7 @@
         <v>3.217</v>
       </c>
       <c r="J1091" t="n">
-        <v>3.216</v>
+        <v>3.186</v>
       </c>
       <c r="K1091" t="inlineStr">
         <is>
@@ -36683,7 +37365,7 @@
         <v>3.216</v>
       </c>
       <c r="J1092" t="n">
-        <v>3.216</v>
+        <v>3.186</v>
       </c>
       <c r="K1092" t="inlineStr">
         <is>
@@ -36724,7 +37406,7 @@
         <v>3.209</v>
       </c>
       <c r="J1093" t="n">
-        <v>3.216</v>
+        <v>3.186</v>
       </c>
       <c r="K1093" t="inlineStr">
         <is>
@@ -36765,7 +37447,7 @@
         <v>3.212</v>
       </c>
       <c r="J1094" t="n">
-        <v>3.216</v>
+        <v>3.186</v>
       </c>
       <c r="K1094" t="inlineStr">
         <is>
@@ -36806,7 +37488,7 @@
         <v>3.215</v>
       </c>
       <c r="J1095" t="n">
-        <v>3.216</v>
+        <v>3.186</v>
       </c>
       <c r="K1095" t="inlineStr">
         <is>
@@ -36847,7 +37529,7 @@
         <v>3.205</v>
       </c>
       <c r="J1096" t="n">
-        <v>3.216</v>
+        <v>3.186</v>
       </c>
       <c r="K1096" t="inlineStr">
         <is>
@@ -36888,7 +37570,7 @@
         <v>3.205</v>
       </c>
       <c r="J1097" t="n">
-        <v>3.216</v>
+        <v>3.186</v>
       </c>
       <c r="K1097" t="inlineStr">
         <is>
@@ -36929,7 +37611,7 @@
         <v>3.215</v>
       </c>
       <c r="J1098" t="n">
-        <v>3.216</v>
+        <v>3.186</v>
       </c>
       <c r="K1098" t="inlineStr">
         <is>
@@ -36970,7 +37652,7 @@
         <v>3.217</v>
       </c>
       <c r="J1099" t="n">
-        <v>3.216</v>
+        <v>3.186</v>
       </c>
       <c r="K1099" t="inlineStr">
         <is>
@@ -37011,7 +37693,7 @@
         <v>3.21</v>
       </c>
       <c r="J1100" t="n">
-        <v>3.216</v>
+        <v>3.186</v>
       </c>
       <c r="K1100" t="inlineStr">
         <is>
@@ -37052,7 +37734,7 @@
         <v>3.213</v>
       </c>
       <c r="J1101" t="n">
-        <v>3.216</v>
+        <v>3.186</v>
       </c>
       <c r="K1101" t="inlineStr">
         <is>
@@ -37093,7 +37775,7 @@
         <v>3.218</v>
       </c>
       <c r="J1102" t="n">
-        <v>3.216</v>
+        <v>3.186</v>
       </c>
       <c r="K1102" t="inlineStr">
         <is>
@@ -37134,7 +37816,7 @@
         <v>3.217</v>
       </c>
       <c r="J1103" t="n">
-        <v>3.216</v>
+        <v>3.186</v>
       </c>
       <c r="K1103" t="inlineStr">
         <is>
@@ -37175,7 +37857,7 @@
         <v>3.218</v>
       </c>
       <c r="J1104" t="n">
-        <v>3.216</v>
+        <v>3.186</v>
       </c>
       <c r="K1104" t="inlineStr">
         <is>
@@ -37216,7 +37898,7 @@
         <v>3.212</v>
       </c>
       <c r="J1105" t="n">
-        <v>3.216</v>
+        <v>3.186</v>
       </c>
       <c r="K1105" t="inlineStr">
         <is>
@@ -37257,7 +37939,7 @@
         <v>3.215</v>
       </c>
       <c r="J1106" t="n">
-        <v>3.216</v>
+        <v>3.186</v>
       </c>
       <c r="K1106" t="inlineStr">
         <is>
@@ -37298,7 +37980,7 @@
         <v>3.211</v>
       </c>
       <c r="J1107" t="n">
-        <v>3.216</v>
+        <v>3.186</v>
       </c>
       <c r="K1107" t="inlineStr">
         <is>
@@ -37339,7 +38021,7 @@
         <v>3.218</v>
       </c>
       <c r="J1108" t="n">
-        <v>3.216</v>
+        <v>3.186</v>
       </c>
       <c r="K1108" t="inlineStr">
         <is>
@@ -37380,7 +38062,7 @@
         <v>3.215</v>
       </c>
       <c r="J1109" t="n">
-        <v>3.216</v>
+        <v>3.186</v>
       </c>
       <c r="K1109" t="inlineStr">
         <is>
@@ -37421,7 +38103,7 @@
         <v>3.211</v>
       </c>
       <c r="J1110" t="n">
-        <v>3.216</v>
+        <v>3.186</v>
       </c>
       <c r="K1110" t="inlineStr">
         <is>
@@ -37462,7 +38144,7 @@
         <v>3.212</v>
       </c>
       <c r="J1111" t="n">
-        <v>3.216</v>
+        <v>3.186</v>
       </c>
       <c r="K1111" t="inlineStr">
         <is>
@@ -37503,7 +38185,7 @@
         <v>3.211</v>
       </c>
       <c r="J1112" t="n">
-        <v>3.216</v>
+        <v>3.186</v>
       </c>
       <c r="K1112" t="inlineStr">
         <is>
@@ -37544,7 +38226,7 @@
         <v>3.215</v>
       </c>
       <c r="J1113" t="n">
-        <v>3.216</v>
+        <v>3.186</v>
       </c>
       <c r="K1113" t="inlineStr">
         <is>
@@ -37585,7 +38267,7 @@
         <v>3.217</v>
       </c>
       <c r="J1114" t="n">
-        <v>3.216</v>
+        <v>3.186</v>
       </c>
       <c r="K1114" t="inlineStr">
         <is>
@@ -37626,7 +38308,7 @@
         <v>3.219</v>
       </c>
       <c r="J1115" t="n">
-        <v>3.216</v>
+        <v>3.186</v>
       </c>
       <c r="K1115" t="inlineStr">
         <is>
@@ -37667,7 +38349,7 @@
         <v>3.219</v>
       </c>
       <c r="J1116" t="n">
-        <v>3.216</v>
+        <v>3.186</v>
       </c>
       <c r="K1116" t="inlineStr">
         <is>
@@ -37708,7 +38390,7 @@
         <v>3.217</v>
       </c>
       <c r="J1117" t="n">
-        <v>3.216</v>
+        <v>3.186</v>
       </c>
       <c r="K1117" t="inlineStr">
         <is>
@@ -37749,7 +38431,7 @@
         <v>3.218</v>
       </c>
       <c r="J1118" t="n">
-        <v>3.216</v>
+        <v>3.186</v>
       </c>
       <c r="K1118" t="inlineStr">
         <is>
@@ -37790,7 +38472,7 @@
         <v>3.21</v>
       </c>
       <c r="J1119" t="n">
-        <v>3.216</v>
+        <v>3.186</v>
       </c>
       <c r="K1119" t="inlineStr">
         <is>
@@ -37831,7 +38513,7 @@
         <v>3.206</v>
       </c>
       <c r="J1120" t="n">
-        <v>3.216</v>
+        <v>3.186</v>
       </c>
       <c r="K1120" t="inlineStr">
         <is>
@@ -37872,7 +38554,7 @@
         <v>3.212</v>
       </c>
       <c r="J1121" t="n">
-        <v>3.216</v>
+        <v>3.186</v>
       </c>
       <c r="K1121" t="inlineStr">
         <is>
@@ -37913,7 +38595,7 @@
         <v>3.213</v>
       </c>
       <c r="J1122" t="n">
-        <v>3.216</v>
+        <v>3.186</v>
       </c>
       <c r="K1122" t="inlineStr">
         <is>
@@ -37954,7 +38636,7 @@
         <v>3.212</v>
       </c>
       <c r="J1123" t="n">
-        <v>3.216</v>
+        <v>3.186</v>
       </c>
       <c r="K1123" t="inlineStr">
         <is>
@@ -37995,7 +38677,7 @@
         <v>3.217</v>
       </c>
       <c r="J1124" t="n">
-        <v>3.216</v>
+        <v>3.186</v>
       </c>
       <c r="K1124" t="inlineStr">
         <is>
@@ -38036,7 +38718,7 @@
         <v>3.211</v>
       </c>
       <c r="J1125" t="n">
-        <v>3.216</v>
+        <v>3.186</v>
       </c>
       <c r="K1125" t="inlineStr">
         <is>
@@ -38077,7 +38759,7 @@
         <v>3.205</v>
       </c>
       <c r="J1126" t="n">
-        <v>3.216</v>
+        <v>3.186</v>
       </c>
       <c r="K1126" t="inlineStr">
         <is>
@@ -38118,7 +38800,7 @@
         <v>3.209</v>
       </c>
       <c r="J1127" t="n">
-        <v>3.216</v>
+        <v>3.186</v>
       </c>
       <c r="K1127" t="inlineStr">
         <is>
@@ -38159,7 +38841,7 @@
         <v>3.228</v>
       </c>
       <c r="J1128" t="n">
-        <v>3.216</v>
+        <v>3.186</v>
       </c>
       <c r="K1128" t="inlineStr">
         <is>
@@ -38200,7 +38882,7 @@
         <v>3.2</v>
       </c>
       <c r="J1129" t="n">
-        <v>3.216</v>
+        <v>3.186</v>
       </c>
       <c r="K1129" t="inlineStr">
         <is>
@@ -38241,7 +38923,7 @@
         <v>3.199</v>
       </c>
       <c r="J1130" t="n">
-        <v>3.216</v>
+        <v>3.186</v>
       </c>
       <c r="K1130" t="inlineStr">
         <is>
@@ -38282,7 +38964,7 @@
         <v>3.198</v>
       </c>
       <c r="J1131" t="n">
-        <v>3.216</v>
+        <v>3.186</v>
       </c>
       <c r="K1131" t="inlineStr">
         <is>
@@ -38323,7 +39005,7 @@
         <v>3.194</v>
       </c>
       <c r="J1132" t="n">
-        <v>3.216</v>
+        <v>3.186</v>
       </c>
       <c r="K1132" t="inlineStr">
         <is>
@@ -38364,7 +39046,7 @@
         <v>3.193</v>
       </c>
       <c r="J1133" t="n">
-        <v>3.216</v>
+        <v>3.186</v>
       </c>
       <c r="K1133" t="inlineStr">
         <is>
@@ -38405,7 +39087,7 @@
         <v>3.191</v>
       </c>
       <c r="J1134" t="n">
-        <v>3.216</v>
+        <v>3.186</v>
       </c>
       <c r="K1134" t="inlineStr">
         <is>
@@ -38446,7 +39128,7 @@
         <v>3.193</v>
       </c>
       <c r="J1135" t="n">
-        <v>3.216</v>
+        <v>3.186</v>
       </c>
       <c r="K1135" t="inlineStr">
         <is>
@@ -38487,7 +39169,7 @@
         <v>3.196</v>
       </c>
       <c r="J1136" t="n">
-        <v>3.216</v>
+        <v>3.186</v>
       </c>
       <c r="K1136" t="inlineStr">
         <is>
@@ -38528,7 +39210,7 @@
         <v>3.181</v>
       </c>
       <c r="J1137" t="n">
-        <v>3.216</v>
+        <v>3.186</v>
       </c>
       <c r="K1137" t="inlineStr">
         <is>
@@ -38569,7 +39251,7 @@
         <v>3.193</v>
       </c>
       <c r="J1138" t="n">
-        <v>3.216</v>
+        <v>3.186</v>
       </c>
       <c r="K1138" t="inlineStr">
         <is>
@@ -38610,7 +39292,7 @@
         <v>3.193</v>
       </c>
       <c r="J1139" t="n">
-        <v>3.216</v>
+        <v>3.186</v>
       </c>
       <c r="K1139" t="inlineStr">
         <is>
@@ -38651,7 +39333,7 @@
         <v>3.192</v>
       </c>
       <c r="J1140" t="n">
-        <v>3.216</v>
+        <v>3.186</v>
       </c>
       <c r="K1140" t="inlineStr">
         <is>
@@ -38692,7 +39374,7 @@
         <v>3.206</v>
       </c>
       <c r="J1141" t="n">
-        <v>3.216</v>
+        <v>3.186</v>
       </c>
       <c r="K1141" t="inlineStr">
         <is>
@@ -38733,7 +39415,7 @@
         <v>3.198</v>
       </c>
       <c r="J1142" t="n">
-        <v>3.216</v>
+        <v>3.186</v>
       </c>
       <c r="K1142" t="inlineStr">
         <is>
@@ -38774,7 +39456,7 @@
         <v>3.206</v>
       </c>
       <c r="J1143" t="n">
-        <v>3.216</v>
+        <v>3.186</v>
       </c>
       <c r="K1143" t="inlineStr">
         <is>
@@ -38815,7 +39497,7 @@
         <v>3.201</v>
       </c>
       <c r="J1144" t="n">
-        <v>3.216</v>
+        <v>3.186</v>
       </c>
       <c r="K1144" t="inlineStr">
         <is>
@@ -38856,7 +39538,7 @@
         <v>3.205</v>
       </c>
       <c r="J1145" t="n">
-        <v>3.216</v>
+        <v>3.186</v>
       </c>
       <c r="K1145" t="inlineStr">
         <is>
@@ -38897,7 +39579,7 @@
         <v>3.192</v>
       </c>
       <c r="J1146" t="n">
-        <v>3.216</v>
+        <v>3.186</v>
       </c>
       <c r="K1146" t="inlineStr">
         <is>
@@ -38938,7 +39620,7 @@
         <v>3.196</v>
       </c>
       <c r="J1147" t="n">
-        <v>3.216</v>
+        <v>3.186</v>
       </c>
       <c r="K1147" t="inlineStr">
         <is>
@@ -38979,7 +39661,7 @@
         <v>3.208</v>
       </c>
       <c r="J1148" t="n">
-        <v>3.216</v>
+        <v>3.186</v>
       </c>
       <c r="K1148" t="inlineStr">
         <is>
@@ -39020,7 +39702,7 @@
         <v>3.193</v>
       </c>
       <c r="J1149" t="n">
-        <v>3.216</v>
+        <v>3.186</v>
       </c>
       <c r="K1149" t="inlineStr">
         <is>
@@ -39061,7 +39743,7 @@
         <v>3.205</v>
       </c>
       <c r="J1150" t="n">
-        <v>3.216</v>
+        <v>3.186</v>
       </c>
       <c r="K1150" t="inlineStr">
         <is>
@@ -39102,7 +39784,7 @@
         <v>3.201</v>
       </c>
       <c r="J1151" t="n">
-        <v>3.216</v>
+        <v>3.186</v>
       </c>
       <c r="K1151" t="inlineStr">
         <is>
@@ -39143,7 +39825,7 @@
         <v>3.205</v>
       </c>
       <c r="J1152" t="n">
-        <v>3.216</v>
+        <v>3.186</v>
       </c>
       <c r="K1152" t="inlineStr">
         <is>
@@ -39184,7 +39866,7 @@
         <v>3.206</v>
       </c>
       <c r="J1153" t="n">
-        <v>3.216</v>
+        <v>3.186</v>
       </c>
       <c r="K1153" t="inlineStr">
         <is>
@@ -39225,7 +39907,7 @@
         <v>3.206</v>
       </c>
       <c r="J1154" t="n">
-        <v>3.216</v>
+        <v>3.186</v>
       </c>
       <c r="K1154" t="inlineStr">
         <is>
@@ -39266,7 +39948,7 @@
         <v>3.201</v>
       </c>
       <c r="J1155" t="n">
-        <v>3.216</v>
+        <v>3.186</v>
       </c>
       <c r="K1155" t="inlineStr">
         <is>
@@ -39307,7 +39989,7 @@
         <v>3.207</v>
       </c>
       <c r="J1156" t="n">
-        <v>3.216</v>
+        <v>3.186</v>
       </c>
       <c r="K1156" t="inlineStr">
         <is>
@@ -39348,7 +40030,7 @@
         <v>3.202</v>
       </c>
       <c r="J1157" t="n">
-        <v>3.216</v>
+        <v>3.186</v>
       </c>
       <c r="K1157" t="inlineStr">
         <is>
@@ -39389,7 +40071,7 @@
         <v>3.203</v>
       </c>
       <c r="J1158" t="n">
-        <v>3.216</v>
+        <v>3.186</v>
       </c>
       <c r="K1158" t="inlineStr">
         <is>
@@ -39430,7 +40112,7 @@
         <v>3.201</v>
       </c>
       <c r="J1159" t="n">
-        <v>3.216</v>
+        <v>3.186</v>
       </c>
       <c r="K1159" t="inlineStr">
         <is>
@@ -39471,7 +40153,7 @@
         <v>3.206</v>
       </c>
       <c r="J1160" t="n">
-        <v>3.216</v>
+        <v>3.186</v>
       </c>
       <c r="K1160" t="inlineStr">
         <is>
@@ -39512,7 +40194,7 @@
         <v>3.204</v>
       </c>
       <c r="J1161" t="n">
-        <v>3.216</v>
+        <v>3.186</v>
       </c>
       <c r="K1161" t="inlineStr">
         <is>
@@ -39553,7 +40235,7 @@
         <v>3.202</v>
       </c>
       <c r="J1162" t="n">
-        <v>3.216</v>
+        <v>3.186</v>
       </c>
       <c r="K1162" t="inlineStr">
         <is>
@@ -39594,7 +40276,7 @@
         <v>3.208</v>
       </c>
       <c r="J1163" t="n">
-        <v>3.216</v>
+        <v>3.186</v>
       </c>
       <c r="K1163" t="inlineStr">
         <is>
@@ -39635,7 +40317,7 @@
         <v>3.206</v>
       </c>
       <c r="J1164" t="n">
-        <v>3.216</v>
+        <v>3.186</v>
       </c>
       <c r="K1164" t="inlineStr">
         <is>
@@ -39676,7 +40358,7 @@
         <v>3.203</v>
       </c>
       <c r="J1165" t="n">
-        <v>3.216</v>
+        <v>3.186</v>
       </c>
       <c r="K1165" t="inlineStr">
         <is>
@@ -39717,7 +40399,7 @@
         <v>3.203</v>
       </c>
       <c r="J1166" t="n">
-        <v>3.216</v>
+        <v>3.186</v>
       </c>
       <c r="K1166" t="inlineStr">
         <is>
@@ -39758,7 +40440,7 @@
         <v>3.208</v>
       </c>
       <c r="J1167" t="n">
-        <v>3.216</v>
+        <v>3.186</v>
       </c>
       <c r="K1167" t="inlineStr">
         <is>
@@ -39799,7 +40481,7 @@
         <v>3.206</v>
       </c>
       <c r="J1168" t="n">
-        <v>3.216</v>
+        <v>3.186</v>
       </c>
       <c r="K1168" t="inlineStr">
         <is>
@@ -39840,7 +40522,7 @@
         <v>3.205</v>
       </c>
       <c r="J1169" t="n">
-        <v>3.216</v>
+        <v>3.186</v>
       </c>
       <c r="K1169" t="inlineStr">
         <is>
@@ -39881,7 +40563,7 @@
         <v>3.204</v>
       </c>
       <c r="J1170" t="n">
-        <v>3.216</v>
+        <v>3.186</v>
       </c>
       <c r="K1170" t="inlineStr">
         <is>
@@ -39922,7 +40604,7 @@
         <v>3.205</v>
       </c>
       <c r="J1171" t="n">
-        <v>3.216</v>
+        <v>3.186</v>
       </c>
       <c r="K1171" t="inlineStr">
         <is>
@@ -39963,7 +40645,7 @@
         <v>3.206</v>
       </c>
       <c r="J1172" t="n">
-        <v>3.216</v>
+        <v>3.186</v>
       </c>
       <c r="K1172" t="inlineStr">
         <is>
@@ -40004,7 +40686,7 @@
         <v>3.214</v>
       </c>
       <c r="J1173" t="n">
-        <v>3.216</v>
+        <v>3.186</v>
       </c>
       <c r="K1173" t="inlineStr">
         <is>
@@ -40045,7 +40727,7 @@
         <v>3.207</v>
       </c>
       <c r="J1174" t="n">
-        <v>3.216</v>
+        <v>3.186</v>
       </c>
       <c r="K1174" t="inlineStr">
         <is>
@@ -40086,7 +40768,7 @@
         <v>3.219</v>
       </c>
       <c r="J1175" t="n">
-        <v>3.216</v>
+        <v>3.186</v>
       </c>
       <c r="K1175" t="inlineStr">
         <is>
@@ -40127,7 +40809,7 @@
         <v>3.214</v>
       </c>
       <c r="J1176" t="n">
-        <v>3.216</v>
+        <v>3.186</v>
       </c>
       <c r="K1176" t="inlineStr">
         <is>
@@ -40168,7 +40850,7 @@
         <v>3.227</v>
       </c>
       <c r="J1177" t="n">
-        <v>3.216</v>
+        <v>3.186</v>
       </c>
       <c r="K1177" t="inlineStr">
         <is>
@@ -40209,7 +40891,7 @@
         <v>3.215</v>
       </c>
       <c r="J1178" t="n">
-        <v>3.216</v>
+        <v>3.186</v>
       </c>
       <c r="K1178" t="inlineStr">
         <is>
@@ -40250,7 +40932,7 @@
         <v>3.229</v>
       </c>
       <c r="J1179" t="n">
-        <v>3.216</v>
+        <v>3.186</v>
       </c>
       <c r="K1179" t="inlineStr">
         <is>
@@ -40291,7 +40973,7 @@
         <v>3.237</v>
       </c>
       <c r="J1180" t="n">
-        <v>3.216</v>
+        <v>3.186</v>
       </c>
       <c r="K1180" t="inlineStr">
         <is>
@@ -40332,7 +41014,7 @@
         <v>3.24</v>
       </c>
       <c r="J1181" t="n">
-        <v>3.216</v>
+        <v>3.186</v>
       </c>
       <c r="K1181" t="inlineStr">
         <is>
@@ -40373,7 +41055,7 @@
         <v>3.249</v>
       </c>
       <c r="J1182" t="n">
-        <v>3.216</v>
+        <v>3.186</v>
       </c>
       <c r="K1182" t="inlineStr">
         <is>
@@ -40414,7 +41096,7 @@
         <v>3.269</v>
       </c>
       <c r="J1183" t="n">
-        <v>3.216</v>
+        <v>3.186</v>
       </c>
       <c r="K1183" t="inlineStr">
         <is>
@@ -40449,11 +41131,13 @@
         <v>-29397337.6037001</v>
       </c>
       <c r="H1184" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1184" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1184" t="n">
+        <v>3.299</v>
+      </c>
       <c r="J1184" t="n">
-        <v>3.216</v>
+        <v>3.186</v>
       </c>
       <c r="K1184" t="inlineStr">
         <is>
@@ -40492,7 +41176,7 @@
       </c>
       <c r="I1185" t="inlineStr"/>
       <c r="J1185" t="n">
-        <v>3.216</v>
+        <v>3.186</v>
       </c>
       <c r="K1185" t="inlineStr">
         <is>
@@ -40531,7 +41215,7 @@
       </c>
       <c r="I1186" t="inlineStr"/>
       <c r="J1186" t="n">
-        <v>3.216</v>
+        <v>3.186</v>
       </c>
       <c r="K1186" t="inlineStr">
         <is>
@@ -40570,7 +41254,7 @@
       </c>
       <c r="I1187" t="inlineStr"/>
       <c r="J1187" t="n">
-        <v>3.216</v>
+        <v>3.186</v>
       </c>
       <c r="K1187" t="inlineStr">
         <is>
@@ -40609,7 +41293,7 @@
       </c>
       <c r="I1188" t="inlineStr"/>
       <c r="J1188" t="n">
-        <v>3.216</v>
+        <v>3.186</v>
       </c>
       <c r="K1188" t="inlineStr">
         <is>
@@ -40648,7 +41332,7 @@
       </c>
       <c r="I1189" t="inlineStr"/>
       <c r="J1189" t="n">
-        <v>3.216</v>
+        <v>3.186</v>
       </c>
       <c r="K1189" t="inlineStr">
         <is>
@@ -40687,7 +41371,7 @@
       </c>
       <c r="I1190" t="inlineStr"/>
       <c r="J1190" t="n">
-        <v>3.216</v>
+        <v>3.186</v>
       </c>
       <c r="K1190" t="inlineStr">
         <is>
@@ -40726,7 +41410,7 @@
       </c>
       <c r="I1191" t="inlineStr"/>
       <c r="J1191" t="n">
-        <v>3.216</v>
+        <v>3.186</v>
       </c>
       <c r="K1191" t="inlineStr">
         <is>
@@ -40765,7 +41449,7 @@
       </c>
       <c r="I1192" t="inlineStr"/>
       <c r="J1192" t="n">
-        <v>3.216</v>
+        <v>3.186</v>
       </c>
       <c r="K1192" t="inlineStr">
         <is>
@@ -40804,7 +41488,7 @@
       </c>
       <c r="I1193" t="inlineStr"/>
       <c r="J1193" t="n">
-        <v>3.216</v>
+        <v>3.186</v>
       </c>
       <c r="K1193" t="inlineStr">
         <is>
@@ -40843,7 +41527,7 @@
       </c>
       <c r="I1194" t="inlineStr"/>
       <c r="J1194" t="n">
-        <v>3.216</v>
+        <v>3.186</v>
       </c>
       <c r="K1194" t="inlineStr">
         <is>
@@ -40882,7 +41566,7 @@
       </c>
       <c r="I1195" t="inlineStr"/>
       <c r="J1195" t="n">
-        <v>3.216</v>
+        <v>3.186</v>
       </c>
       <c r="K1195" t="inlineStr">
         <is>
@@ -40917,23 +41601,21 @@
         <v>-23579520.7875927</v>
       </c>
       <c r="H1196" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1196" t="inlineStr"/>
       <c r="J1196" t="n">
-        <v>3.216</v>
+        <v>3.186</v>
       </c>
       <c r="K1196" t="inlineStr">
         <is>
-          <t>매도 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L1196" t="n">
-        <v>1.061542288557214</v>
-      </c>
-      <c r="M1196" t="n">
-        <v>1.192063492063492</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="M1196" t="inlineStr"/>
     </row>
     <row r="1197">
       <c r="A1197" s="1" t="n">
@@ -40958,11 +41640,17 @@
         <v>-24088714.8203927</v>
       </c>
       <c r="H1197" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1197" t="inlineStr"/>
-      <c r="J1197" t="inlineStr"/>
-      <c r="K1197" t="inlineStr"/>
+      <c r="J1197" t="n">
+        <v>3.186</v>
+      </c>
+      <c r="K1197" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1197" t="n">
         <v>1</v>
       </c>
@@ -40991,11 +41679,17 @@
         <v>-24418521.0500927</v>
       </c>
       <c r="H1198" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1198" t="inlineStr"/>
-      <c r="J1198" t="inlineStr"/>
-      <c r="K1198" t="inlineStr"/>
+      <c r="J1198" t="n">
+        <v>3.186</v>
+      </c>
+      <c r="K1198" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1198" t="n">
         <v>1</v>
       </c>
@@ -41027,8 +41721,14 @@
         <v>0</v>
       </c>
       <c r="I1199" t="inlineStr"/>
-      <c r="J1199" t="inlineStr"/>
-      <c r="K1199" t="inlineStr"/>
+      <c r="J1199" t="n">
+        <v>3.186</v>
+      </c>
+      <c r="K1199" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1199" t="n">
         <v>1</v>
       </c>
@@ -41060,8 +41760,14 @@
         <v>0</v>
       </c>
       <c r="I1200" t="inlineStr"/>
-      <c r="J1200" t="inlineStr"/>
-      <c r="K1200" t="inlineStr"/>
+      <c r="J1200" t="n">
+        <v>3.186</v>
+      </c>
+      <c r="K1200" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1200" t="n">
         <v>1</v>
       </c>
@@ -41093,8 +41799,14 @@
         <v>0</v>
       </c>
       <c r="I1201" t="inlineStr"/>
-      <c r="J1201" t="inlineStr"/>
-      <c r="K1201" t="inlineStr"/>
+      <c r="J1201" t="n">
+        <v>3.186</v>
+      </c>
+      <c r="K1201" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1201" t="n">
         <v>1</v>
       </c>
@@ -41126,8 +41838,14 @@
         <v>0</v>
       </c>
       <c r="I1202" t="inlineStr"/>
-      <c r="J1202" t="inlineStr"/>
-      <c r="K1202" t="inlineStr"/>
+      <c r="J1202" t="n">
+        <v>3.186</v>
+      </c>
+      <c r="K1202" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1202" t="n">
         <v>1</v>
       </c>
@@ -41159,8 +41877,14 @@
         <v>0</v>
       </c>
       <c r="I1203" t="inlineStr"/>
-      <c r="J1203" t="inlineStr"/>
-      <c r="K1203" t="inlineStr"/>
+      <c r="J1203" t="n">
+        <v>3.186</v>
+      </c>
+      <c r="K1203" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1203" t="n">
         <v>1</v>
       </c>
@@ -41192,8 +41916,14 @@
         <v>0</v>
       </c>
       <c r="I1204" t="inlineStr"/>
-      <c r="J1204" t="inlineStr"/>
-      <c r="K1204" t="inlineStr"/>
+      <c r="J1204" t="n">
+        <v>3.186</v>
+      </c>
+      <c r="K1204" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1204" t="n">
         <v>1</v>
       </c>
@@ -41225,8 +41955,14 @@
         <v>0</v>
       </c>
       <c r="I1205" t="inlineStr"/>
-      <c r="J1205" t="inlineStr"/>
-      <c r="K1205" t="inlineStr"/>
+      <c r="J1205" t="n">
+        <v>3.186</v>
+      </c>
+      <c r="K1205" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1205" t="n">
         <v>1</v>
       </c>
@@ -41258,8 +41994,14 @@
         <v>0</v>
       </c>
       <c r="I1206" t="inlineStr"/>
-      <c r="J1206" t="inlineStr"/>
-      <c r="K1206" t="inlineStr"/>
+      <c r="J1206" t="n">
+        <v>3.186</v>
+      </c>
+      <c r="K1206" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1206" t="n">
         <v>1</v>
       </c>
@@ -41291,8 +42033,14 @@
         <v>0</v>
       </c>
       <c r="I1207" t="inlineStr"/>
-      <c r="J1207" t="inlineStr"/>
-      <c r="K1207" t="inlineStr"/>
+      <c r="J1207" t="n">
+        <v>3.186</v>
+      </c>
+      <c r="K1207" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1207" t="n">
         <v>1</v>
       </c>
@@ -41324,8 +42072,14 @@
         <v>0</v>
       </c>
       <c r="I1208" t="inlineStr"/>
-      <c r="J1208" t="inlineStr"/>
-      <c r="K1208" t="inlineStr"/>
+      <c r="J1208" t="n">
+        <v>3.186</v>
+      </c>
+      <c r="K1208" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1208" t="n">
         <v>1</v>
       </c>
@@ -41357,8 +42111,14 @@
         <v>0</v>
       </c>
       <c r="I1209" t="inlineStr"/>
-      <c r="J1209" t="inlineStr"/>
-      <c r="K1209" t="inlineStr"/>
+      <c r="J1209" t="n">
+        <v>3.186</v>
+      </c>
+      <c r="K1209" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1209" t="n">
         <v>1</v>
       </c>
@@ -41390,8 +42150,14 @@
         <v>0</v>
       </c>
       <c r="I1210" t="inlineStr"/>
-      <c r="J1210" t="inlineStr"/>
-      <c r="K1210" t="inlineStr"/>
+      <c r="J1210" t="n">
+        <v>3.186</v>
+      </c>
+      <c r="K1210" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1210" t="n">
         <v>1</v>
       </c>
@@ -41423,8 +42189,14 @@
         <v>0</v>
       </c>
       <c r="I1211" t="inlineStr"/>
-      <c r="J1211" t="inlineStr"/>
-      <c r="K1211" t="inlineStr"/>
+      <c r="J1211" t="n">
+        <v>3.186</v>
+      </c>
+      <c r="K1211" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1211" t="n">
         <v>1</v>
       </c>
@@ -41456,8 +42228,14 @@
         <v>0</v>
       </c>
       <c r="I1212" t="inlineStr"/>
-      <c r="J1212" t="inlineStr"/>
-      <c r="K1212" t="inlineStr"/>
+      <c r="J1212" t="n">
+        <v>3.186</v>
+      </c>
+      <c r="K1212" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1212" t="n">
         <v>1</v>
       </c>
@@ -41489,8 +42267,14 @@
         <v>0</v>
       </c>
       <c r="I1213" t="inlineStr"/>
-      <c r="J1213" t="inlineStr"/>
-      <c r="K1213" t="inlineStr"/>
+      <c r="J1213" t="n">
+        <v>3.186</v>
+      </c>
+      <c r="K1213" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1213" t="n">
         <v>1</v>
       </c>
@@ -41522,8 +42306,14 @@
         <v>0</v>
       </c>
       <c r="I1214" t="inlineStr"/>
-      <c r="J1214" t="inlineStr"/>
-      <c r="K1214" t="inlineStr"/>
+      <c r="J1214" t="n">
+        <v>3.186</v>
+      </c>
+      <c r="K1214" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1214" t="n">
         <v>1</v>
       </c>
@@ -41555,8 +42345,14 @@
         <v>0</v>
       </c>
       <c r="I1215" t="inlineStr"/>
-      <c r="J1215" t="inlineStr"/>
-      <c r="K1215" t="inlineStr"/>
+      <c r="J1215" t="n">
+        <v>3.186</v>
+      </c>
+      <c r="K1215" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1215" t="n">
         <v>1</v>
       </c>
@@ -41585,11 +42381,19 @@
         <v>-27300311.48659025</v>
       </c>
       <c r="H1216" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1216" t="inlineStr"/>
-      <c r="J1216" t="inlineStr"/>
-      <c r="K1216" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1216" t="n">
+        <v>3.224</v>
+      </c>
+      <c r="J1216" t="n">
+        <v>3.186</v>
+      </c>
+      <c r="K1216" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1216" t="n">
         <v>1</v>
       </c>
@@ -41618,11 +42422,19 @@
         <v>-27392024.15459025</v>
       </c>
       <c r="H1217" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1217" t="inlineStr"/>
-      <c r="J1217" t="inlineStr"/>
-      <c r="K1217" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1217" t="n">
+        <v>3.225</v>
+      </c>
+      <c r="J1217" t="n">
+        <v>3.186</v>
+      </c>
+      <c r="K1217" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1217" t="n">
         <v>1</v>
       </c>
@@ -41651,11 +42463,19 @@
         <v>-27491985.76189025</v>
       </c>
       <c r="H1218" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1218" t="inlineStr"/>
-      <c r="J1218" t="inlineStr"/>
-      <c r="K1218" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1218" t="n">
+        <v>3.216</v>
+      </c>
+      <c r="J1218" t="n">
+        <v>3.186</v>
+      </c>
+      <c r="K1218" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1218" t="n">
         <v>1</v>
       </c>
@@ -41684,11 +42504,19 @@
         <v>-27371310.39209025</v>
       </c>
       <c r="H1219" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1219" t="inlineStr"/>
-      <c r="J1219" t="inlineStr"/>
-      <c r="K1219" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1219" t="n">
+        <v>3.212</v>
+      </c>
+      <c r="J1219" t="n">
+        <v>3.186</v>
+      </c>
+      <c r="K1219" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1219" t="n">
         <v>1</v>
       </c>
@@ -41717,11 +42545,19 @@
         <v>-27298821.34009025</v>
       </c>
       <c r="H1220" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1220" t="inlineStr"/>
-      <c r="J1220" t="inlineStr"/>
-      <c r="K1220" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1220" t="n">
+        <v>3.222</v>
+      </c>
+      <c r="J1220" t="n">
+        <v>3.186</v>
+      </c>
+      <c r="K1220" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1220" t="n">
         <v>1</v>
       </c>
@@ -41750,11 +42586,19 @@
         <v>-27239949.01609025</v>
       </c>
       <c r="H1221" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1221" t="inlineStr"/>
-      <c r="J1221" t="inlineStr"/>
-      <c r="K1221" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1221" t="n">
+        <v>3.224</v>
+      </c>
+      <c r="J1221" t="n">
+        <v>3.186</v>
+      </c>
+      <c r="K1221" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1221" t="n">
         <v>1</v>
       </c>
@@ -41783,11 +42627,19 @@
         <v>-27284712.62809025</v>
       </c>
       <c r="H1222" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1222" t="inlineStr"/>
-      <c r="J1222" t="inlineStr"/>
-      <c r="K1222" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1222" t="n">
+        <v>3.23</v>
+      </c>
+      <c r="J1222" t="n">
+        <v>3.186</v>
+      </c>
+      <c r="K1222" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1222" t="n">
         <v>1</v>
       </c>
@@ -41816,11 +42668,19 @@
         <v>-27284557.62809025</v>
       </c>
       <c r="H1223" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1223" t="inlineStr"/>
-      <c r="J1223" t="inlineStr"/>
-      <c r="K1223" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1223" t="n">
+        <v>3.221</v>
+      </c>
+      <c r="J1223" t="n">
+        <v>3.186</v>
+      </c>
+      <c r="K1223" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1223" t="n">
         <v>1</v>
       </c>
@@ -41849,11 +42709,19 @@
         <v>-27374668.32809025</v>
       </c>
       <c r="H1224" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1224" t="inlineStr"/>
-      <c r="J1224" t="inlineStr"/>
-      <c r="K1224" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1224" t="n">
+        <v>3.239</v>
+      </c>
+      <c r="J1224" t="n">
+        <v>3.186</v>
+      </c>
+      <c r="K1224" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1224" t="n">
         <v>1</v>
       </c>
@@ -41882,11 +42750,19 @@
         <v>-27420724.90809024</v>
       </c>
       <c r="H1225" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1225" t="inlineStr"/>
-      <c r="J1225" t="inlineStr"/>
-      <c r="K1225" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1225" t="n">
+        <v>3.235</v>
+      </c>
+      <c r="J1225" t="n">
+        <v>3.186</v>
+      </c>
+      <c r="K1225" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1225" t="n">
         <v>1</v>
       </c>
@@ -41915,11 +42791,19 @@
         <v>-27296807.72299024</v>
       </c>
       <c r="H1226" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1226" t="inlineStr"/>
-      <c r="J1226" t="inlineStr"/>
-      <c r="K1226" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1226" t="n">
+        <v>3.223</v>
+      </c>
+      <c r="J1226" t="n">
+        <v>3.186</v>
+      </c>
+      <c r="K1226" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1226" t="n">
         <v>1</v>
       </c>
@@ -41948,11 +42832,19 @@
         <v>-27256358.03099024</v>
       </c>
       <c r="H1227" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1227" t="inlineStr"/>
-      <c r="J1227" t="inlineStr"/>
-      <c r="K1227" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1227" t="n">
+        <v>3.225</v>
+      </c>
+      <c r="J1227" t="n">
+        <v>3.186</v>
+      </c>
+      <c r="K1227" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1227" t="n">
         <v>1</v>
       </c>
@@ -41981,11 +42873,19 @@
         <v>-27169451.26699024</v>
       </c>
       <c r="H1228" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1228" t="inlineStr"/>
-      <c r="J1228" t="inlineStr"/>
-      <c r="K1228" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1228" t="n">
+        <v>3.229</v>
+      </c>
+      <c r="J1228" t="n">
+        <v>3.186</v>
+      </c>
+      <c r="K1228" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1228" t="n">
         <v>1</v>
       </c>
@@ -42014,11 +42914,19 @@
         <v>-27343264.79499025</v>
       </c>
       <c r="H1229" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1229" t="inlineStr"/>
-      <c r="J1229" t="inlineStr"/>
-      <c r="K1229" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1229" t="n">
+        <v>3.235</v>
+      </c>
+      <c r="J1229" t="n">
+        <v>3.186</v>
+      </c>
+      <c r="K1229" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1229" t="n">
         <v>1</v>
       </c>
@@ -42047,11 +42955,19 @@
         <v>-27409345.97499024</v>
       </c>
       <c r="H1230" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1230" t="inlineStr"/>
-      <c r="J1230" t="inlineStr"/>
-      <c r="K1230" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1230" t="n">
+        <v>3.225</v>
+      </c>
+      <c r="J1230" t="n">
+        <v>3.186</v>
+      </c>
+      <c r="K1230" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1230" t="n">
         <v>1</v>
       </c>
@@ -42080,11 +42996,19 @@
         <v>-27299138.29099024</v>
       </c>
       <c r="H1231" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1231" t="inlineStr"/>
-      <c r="J1231" t="inlineStr"/>
-      <c r="K1231" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1231" t="n">
+        <v>3.223</v>
+      </c>
+      <c r="J1231" t="n">
+        <v>3.186</v>
+      </c>
+      <c r="K1231" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1231" t="n">
         <v>1</v>
       </c>
@@ -42113,11 +43037,19 @@
         <v>-27299138.29099024</v>
       </c>
       <c r="H1232" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1232" t="inlineStr"/>
-      <c r="J1232" t="inlineStr"/>
-      <c r="K1232" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1232" t="n">
+        <v>3.237</v>
+      </c>
+      <c r="J1232" t="n">
+        <v>3.186</v>
+      </c>
+      <c r="K1232" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1232" t="n">
         <v>1</v>
       </c>
@@ -42146,11 +43078,19 @@
         <v>-27175513.69549024</v>
       </c>
       <c r="H1233" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1233" t="inlineStr"/>
-      <c r="J1233" t="inlineStr"/>
-      <c r="K1233" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1233" t="n">
+        <v>3.237</v>
+      </c>
+      <c r="J1233" t="n">
+        <v>3.186</v>
+      </c>
+      <c r="K1233" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1233" t="n">
         <v>1</v>
       </c>
@@ -42182,8 +43122,14 @@
         <v>0</v>
       </c>
       <c r="I1234" t="inlineStr"/>
-      <c r="J1234" t="inlineStr"/>
-      <c r="K1234" t="inlineStr"/>
+      <c r="J1234" t="n">
+        <v>3.186</v>
+      </c>
+      <c r="K1234" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1234" t="n">
         <v>1</v>
       </c>
@@ -42215,8 +43161,14 @@
         <v>0</v>
       </c>
       <c r="I1235" t="inlineStr"/>
-      <c r="J1235" t="inlineStr"/>
-      <c r="K1235" t="inlineStr"/>
+      <c r="J1235" t="n">
+        <v>3.186</v>
+      </c>
+      <c r="K1235" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1235" t="n">
         <v>1</v>
       </c>
@@ -42248,8 +43200,14 @@
         <v>0</v>
       </c>
       <c r="I1236" t="inlineStr"/>
-      <c r="J1236" t="inlineStr"/>
-      <c r="K1236" t="inlineStr"/>
+      <c r="J1236" t="n">
+        <v>3.186</v>
+      </c>
+      <c r="K1236" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1236" t="n">
         <v>1</v>
       </c>
@@ -42281,8 +43239,14 @@
         <v>0</v>
       </c>
       <c r="I1237" t="inlineStr"/>
-      <c r="J1237" t="inlineStr"/>
-      <c r="K1237" t="inlineStr"/>
+      <c r="J1237" t="n">
+        <v>3.186</v>
+      </c>
+      <c r="K1237" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1237" t="n">
         <v>1</v>
       </c>
@@ -42314,8 +43278,14 @@
         <v>0</v>
       </c>
       <c r="I1238" t="inlineStr"/>
-      <c r="J1238" t="inlineStr"/>
-      <c r="K1238" t="inlineStr"/>
+      <c r="J1238" t="n">
+        <v>3.186</v>
+      </c>
+      <c r="K1238" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1238" t="n">
         <v>1</v>
       </c>
@@ -42347,8 +43317,14 @@
         <v>0</v>
       </c>
       <c r="I1239" t="inlineStr"/>
-      <c r="J1239" t="inlineStr"/>
-      <c r="K1239" t="inlineStr"/>
+      <c r="J1239" t="n">
+        <v>3.186</v>
+      </c>
+      <c r="K1239" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1239" t="n">
         <v>1</v>
       </c>
@@ -42380,8 +43356,14 @@
         <v>0</v>
       </c>
       <c r="I1240" t="inlineStr"/>
-      <c r="J1240" t="inlineStr"/>
-      <c r="K1240" t="inlineStr"/>
+      <c r="J1240" t="n">
+        <v>3.186</v>
+      </c>
+      <c r="K1240" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1240" t="n">
         <v>1</v>
       </c>
@@ -42413,8 +43395,14 @@
         <v>0</v>
       </c>
       <c r="I1241" t="inlineStr"/>
-      <c r="J1241" t="inlineStr"/>
-      <c r="K1241" t="inlineStr"/>
+      <c r="J1241" t="n">
+        <v>3.186</v>
+      </c>
+      <c r="K1241" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1241" t="n">
         <v>1</v>
       </c>
@@ -42446,8 +43434,14 @@
         <v>0</v>
       </c>
       <c r="I1242" t="inlineStr"/>
-      <c r="J1242" t="inlineStr"/>
-      <c r="K1242" t="inlineStr"/>
+      <c r="J1242" t="n">
+        <v>3.186</v>
+      </c>
+      <c r="K1242" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1242" t="n">
         <v>1</v>
       </c>
@@ -42479,8 +43473,14 @@
         <v>0</v>
       </c>
       <c r="I1243" t="inlineStr"/>
-      <c r="J1243" t="inlineStr"/>
-      <c r="K1243" t="inlineStr"/>
+      <c r="J1243" t="n">
+        <v>3.186</v>
+      </c>
+      <c r="K1243" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1243" t="n">
         <v>1</v>
       </c>
@@ -42512,8 +43512,14 @@
         <v>0</v>
       </c>
       <c r="I1244" t="inlineStr"/>
-      <c r="J1244" t="inlineStr"/>
-      <c r="K1244" t="inlineStr"/>
+      <c r="J1244" t="n">
+        <v>3.186</v>
+      </c>
+      <c r="K1244" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1244" t="n">
         <v>1</v>
       </c>
@@ -42545,8 +43551,14 @@
         <v>0</v>
       </c>
       <c r="I1245" t="inlineStr"/>
-      <c r="J1245" t="inlineStr"/>
-      <c r="K1245" t="inlineStr"/>
+      <c r="J1245" t="n">
+        <v>3.186</v>
+      </c>
+      <c r="K1245" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1245" t="n">
         <v>1</v>
       </c>
@@ -42578,8 +43590,14 @@
         <v>0</v>
       </c>
       <c r="I1246" t="inlineStr"/>
-      <c r="J1246" t="inlineStr"/>
-      <c r="K1246" t="inlineStr"/>
+      <c r="J1246" t="n">
+        <v>3.186</v>
+      </c>
+      <c r="K1246" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1246" t="n">
         <v>1</v>
       </c>
@@ -42611,8 +43629,14 @@
         <v>0</v>
       </c>
       <c r="I1247" t="inlineStr"/>
-      <c r="J1247" t="inlineStr"/>
-      <c r="K1247" t="inlineStr"/>
+      <c r="J1247" t="n">
+        <v>3.186</v>
+      </c>
+      <c r="K1247" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1247" t="n">
         <v>1</v>
       </c>
@@ -42644,8 +43668,14 @@
         <v>0</v>
       </c>
       <c r="I1248" t="inlineStr"/>
-      <c r="J1248" t="inlineStr"/>
-      <c r="K1248" t="inlineStr"/>
+      <c r="J1248" t="n">
+        <v>3.186</v>
+      </c>
+      <c r="K1248" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1248" t="n">
         <v>1</v>
       </c>
@@ -42677,8 +43707,14 @@
         <v>0</v>
       </c>
       <c r="I1249" t="inlineStr"/>
-      <c r="J1249" t="inlineStr"/>
-      <c r="K1249" t="inlineStr"/>
+      <c r="J1249" t="n">
+        <v>3.186</v>
+      </c>
+      <c r="K1249" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1249" t="n">
         <v>1</v>
       </c>
@@ -42710,8 +43746,14 @@
         <v>0</v>
       </c>
       <c r="I1250" t="inlineStr"/>
-      <c r="J1250" t="inlineStr"/>
-      <c r="K1250" t="inlineStr"/>
+      <c r="J1250" t="n">
+        <v>3.186</v>
+      </c>
+      <c r="K1250" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1250" t="n">
         <v>1</v>
       </c>
